--- a/Web, Docker, Git/Docker_Git,sendgrid.xlsx
+++ b/Web, Docker, Git/Docker_Git,sendgrid.xlsx
@@ -982,6 +982,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1021,13 +1028,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -3744,55 +3744,55 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:15" s="3" customFormat="1">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34" t="s">
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35" t="s">
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="2:15" ht="25.8" customHeight="1">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32" t="s">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="36" t="s">
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="38"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="43"/>
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="2:15" ht="25.8" customHeight="1">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32" t="s">
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="41"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="46"/>
     </row>
     <row r="9" spans="2:15">
       <c r="N9" s="4"/>
@@ -4037,7 +4037,7 @@
       <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="42" t="s">
+      <c r="N9" s="47" t="s">
         <v>62</v>
       </c>
       <c r="O9" s="13" t="s">
@@ -4064,7 +4064,7 @@
       <c r="D10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="43"/>
+      <c r="N10" s="48"/>
       <c r="O10" s="16" t="s">
         <v>50</v>
       </c>
@@ -4091,7 +4091,7 @@
       <c r="D11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="43"/>
+      <c r="N11" s="48"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
@@ -4117,7 +4117,7 @@
       <c r="G12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N12" s="43"/>
+      <c r="N12" s="48"/>
       <c r="O12" s="19" t="s">
         <v>51</v>
       </c>
@@ -4144,7 +4144,7 @@
       <c r="D13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N13" s="43"/>
+      <c r="N13" s="48"/>
       <c r="O13" s="16" t="s">
         <v>50</v>
       </c>
@@ -4171,7 +4171,7 @@
       <c r="D14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N14" s="44"/>
+      <c r="N14" s="49"/>
       <c r="O14" s="20" t="s">
         <v>58</v>
       </c>
@@ -4310,7 +4310,7 @@
   <dimension ref="B3:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4352,27 +4352,27 @@
       <c r="B13" s="29"/>
     </row>
     <row r="14" spans="2:2" ht="33" thickBot="1">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="34" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="2:2" s="49" customFormat="1">
+    <row r="15" spans="2:2" s="36" customFormat="1">
       <c r="B15" s="29" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="2:2" s="49" customFormat="1">
+    <row r="16" spans="2:2" s="36" customFormat="1">
       <c r="B16" s="29" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15.6">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="35" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="15.6">
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="35" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4393,7 +4393,7 @@
       <c r="B23" s="29"/>
     </row>
     <row r="24" spans="2:2" ht="24.6">
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="32" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4408,7 +4408,7 @@
       </c>
     </row>
     <row r="28" spans="2:2" ht="24.6">
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="32" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4423,7 +4423,7 @@
       </c>
     </row>
     <row r="34" spans="2:2" ht="23.4">
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="33" t="s">
         <v>147</v>
       </c>
     </row>

--- a/Web, Docker, Git/Docker_Git,sendgrid.xlsx
+++ b/Web, Docker, Git/Docker_Git,sendgrid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="GIT_HUB" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="168">
   <si>
     <t>IMAGE</t>
   </si>
@@ -505,14 +505,66 @@
   <si>
     <t>https://github.com/sendgrid/python-http-client</t>
   </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/12i4myOgbukiXtX185Kir1qE2SXIpcrd6uik4wJL_KjU/edit#slide=id.p22</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1JuYQgpbrW0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Từ gà tới pro Git và Github trong 20 phút </t>
+  </si>
+  <si>
+    <t xml:space="preserve">create new branch </t>
+  </si>
+  <si>
+    <t>git branch add-blogNews</t>
+  </si>
+  <si>
+    <t>git checkout blogNews</t>
+  </si>
+  <si>
+    <t>https://freetuts.net/git-lenh-checkout-branch-1075.html</t>
+  </si>
+  <si>
+    <t>*** git check out master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choose branch "add-blogNews" -&gt; current, </t>
+  </si>
+  <si>
+    <t>BASE on master</t>
+  </si>
+  <si>
+    <t>BASE on master to MERGE</t>
+  </si>
+  <si>
+    <t>*** git checkout master</t>
+  </si>
+  <si>
+    <t>git merge add-blogNews</t>
+  </si>
+  <si>
+    <t>git pull origin master</t>
+  </si>
+  <si>
+    <t>assynchronous to git-master in server</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -658,22 +710,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="26"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -713,7 +749,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -738,6 +774,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -924,110 +972,115 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1195,8 +1248,8 @@
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1235,15 +1288,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1261,8 +1314,95 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="541020" y="33238440"/>
+          <a:off x="502920" y="32552640"/>
           <a:ext cx="9265920" cy="2918460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>290834</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="40320686"/>
+          <a:ext cx="8723997" cy="3984171"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1033" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1310640" y="44508420"/>
+          <a:ext cx="7970520" cy="4389120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2144,1588 +2284,1769 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U139"/>
+  <dimension ref="A1:U172"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="32.77734375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="8.88671875" style="47"/>
+    <col min="3" max="3" width="51.77734375" style="47" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="11" t="s">
         <v>131</v>
       </c>
     </row>
+    <row r="2" spans="3:3">
+      <c r="C2" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="23"/>
+      <c r="C6" s="48"/>
     </row>
     <row r="59" spans="1:17">
-      <c r="A59" s="24"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="24"/>
-      <c r="M59" s="24"/>
-      <c r="N59" s="24"/>
-      <c r="O59" s="24"/>
-      <c r="P59" s="24"/>
-      <c r="Q59" s="24"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="23"/>
+      <c r="N59" s="23"/>
+      <c r="O59" s="23"/>
+      <c r="P59" s="23"/>
+      <c r="Q59" s="23"/>
     </row>
     <row r="60" spans="1:17">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="24"/>
-      <c r="M60" s="24"/>
-      <c r="N60" s="24"/>
-      <c r="O60" s="24"/>
-      <c r="P60" s="24"/>
-      <c r="Q60" s="24"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="23"/>
+      <c r="P60" s="23"/>
+      <c r="Q60" s="23"/>
     </row>
     <row r="61" spans="1:17">
-      <c r="A61" s="24"/>
-      <c r="B61" s="24" t="s">
+      <c r="A61" s="23"/>
+      <c r="B61" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="24"/>
-      <c r="N61" s="24"/>
-      <c r="O61" s="24"/>
-      <c r="P61" s="24"/>
-      <c r="Q61" s="24"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="23"/>
+      <c r="O61" s="23"/>
+      <c r="P61" s="23"/>
+      <c r="Q61" s="23"/>
     </row>
     <row r="62" spans="1:17">
-      <c r="A62" s="24"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24" t="s">
+      <c r="A62" s="23"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="24"/>
-      <c r="M62" s="24"/>
-      <c r="N62" s="24"/>
-      <c r="O62" s="24"/>
-      <c r="P62" s="24"/>
-      <c r="Q62" s="24"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="23"/>
+      <c r="P62" s="23"/>
+      <c r="Q62" s="23"/>
     </row>
     <row r="63" spans="1:17">
-      <c r="A63" s="24"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24" t="s">
+      <c r="A63" s="23"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="24"/>
-      <c r="N63" s="24"/>
-      <c r="O63" s="24"/>
-      <c r="P63" s="24"/>
-      <c r="Q63" s="24"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="23"/>
+      <c r="P63" s="23"/>
+      <c r="Q63" s="23"/>
     </row>
     <row r="64" spans="1:17">
-      <c r="A64" s="24"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="24"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="24"/>
-      <c r="O64" s="24"/>
-      <c r="P64" s="24"/>
-      <c r="Q64" s="24"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="23"/>
+      <c r="P64" s="23"/>
+      <c r="Q64" s="23"/>
     </row>
     <row r="65" spans="1:17">
-      <c r="A65" s="24"/>
-      <c r="B65" s="24" t="s">
+      <c r="A65" s="23"/>
+      <c r="B65" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="24"/>
-      <c r="M65" s="24"/>
-      <c r="N65" s="24"/>
-      <c r="O65" s="24"/>
-      <c r="P65" s="24"/>
-      <c r="Q65" s="24"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="23"/>
+      <c r="N65" s="23"/>
+      <c r="O65" s="23"/>
+      <c r="P65" s="23"/>
+      <c r="Q65" s="23"/>
     </row>
     <row r="66" spans="1:17">
-      <c r="A66" s="24"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24" t="s">
+      <c r="A66" s="23"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="24"/>
-      <c r="N66" s="24"/>
-      <c r="O66" s="24"/>
-      <c r="P66" s="24"/>
-      <c r="Q66" s="24"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="23"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
     </row>
     <row r="67" spans="1:17">
-      <c r="A67" s="24"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="24"/>
-      <c r="N67" s="24"/>
-      <c r="O67" s="24"/>
-      <c r="P67" s="24"/>
-      <c r="Q67" s="24"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="23"/>
+      <c r="N67" s="23"/>
+      <c r="O67" s="23"/>
+      <c r="P67" s="23"/>
+      <c r="Q67" s="23"/>
     </row>
     <row r="68" spans="1:17">
-      <c r="A68" s="24"/>
-      <c r="B68" s="24" t="s">
+      <c r="A68" s="23"/>
+      <c r="B68" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="24"/>
-      <c r="M68" s="24"/>
-      <c r="N68" s="24"/>
-      <c r="O68" s="24"/>
-      <c r="P68" s="24"/>
-      <c r="Q68" s="24"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="23"/>
+      <c r="M68" s="23"/>
+      <c r="N68" s="23"/>
+      <c r="O68" s="23"/>
+      <c r="P68" s="23"/>
+      <c r="Q68" s="23"/>
     </row>
     <row r="69" spans="1:17">
-      <c r="A69" s="24"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="24" t="s">
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="24"/>
-      <c r="L69" s="24"/>
-      <c r="M69" s="24"/>
-      <c r="N69" s="24"/>
-      <c r="O69" s="24"/>
-      <c r="P69" s="24"/>
-      <c r="Q69" s="24"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="23"/>
+      <c r="M69" s="23"/>
+      <c r="N69" s="23"/>
+      <c r="O69" s="23"/>
+      <c r="P69" s="23"/>
+      <c r="Q69" s="23"/>
     </row>
     <row r="70" spans="1:17">
-      <c r="A70" s="24"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="24"/>
-      <c r="L70" s="24"/>
-      <c r="M70" s="24"/>
-      <c r="N70" s="24"/>
-      <c r="O70" s="24"/>
-      <c r="P70" s="24"/>
-      <c r="Q70" s="24"/>
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="23"/>
+      <c r="M70" s="23"/>
+      <c r="N70" s="23"/>
+      <c r="O70" s="23"/>
+      <c r="P70" s="23"/>
+      <c r="Q70" s="23"/>
     </row>
     <row r="71" spans="1:17">
-      <c r="A71" s="24"/>
-      <c r="B71" s="24" t="s">
+      <c r="A71" s="23"/>
+      <c r="B71" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="24"/>
-      <c r="M71" s="24"/>
-      <c r="N71" s="24"/>
-      <c r="O71" s="24"/>
-      <c r="P71" s="24"/>
-      <c r="Q71" s="24"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="23"/>
+      <c r="L71" s="23"/>
+      <c r="M71" s="23"/>
+      <c r="N71" s="23"/>
+      <c r="O71" s="23"/>
+      <c r="P71" s="23"/>
+      <c r="Q71" s="23"/>
     </row>
     <row r="72" spans="1:17">
-      <c r="A72" s="24"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="24" t="s">
+      <c r="A72" s="23"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="24"/>
-      <c r="K72" s="24"/>
-      <c r="L72" s="24"/>
-      <c r="M72" s="24"/>
-      <c r="N72" s="24"/>
-      <c r="O72" s="24"/>
-      <c r="P72" s="24"/>
-      <c r="Q72" s="24"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="23"/>
+      <c r="M72" s="23"/>
+      <c r="N72" s="23"/>
+      <c r="O72" s="23"/>
+      <c r="P72" s="23"/>
+      <c r="Q72" s="23"/>
     </row>
     <row r="73" spans="1:17">
-      <c r="A73" s="24"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="24" t="s">
+      <c r="A73" s="23"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24"/>
-      <c r="K73" s="24"/>
-      <c r="L73" s="24"/>
-      <c r="M73" s="24"/>
-      <c r="N73" s="24"/>
-      <c r="O73" s="24"/>
-      <c r="P73" s="24"/>
-      <c r="Q73" s="24"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="23"/>
+      <c r="M73" s="23"/>
+      <c r="N73" s="23"/>
+      <c r="O73" s="23"/>
+      <c r="P73" s="23"/>
+      <c r="Q73" s="23"/>
     </row>
     <row r="74" spans="1:17">
-      <c r="A74" s="24"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="24" t="s">
+      <c r="A74" s="23"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
-      <c r="K74" s="24"/>
-      <c r="L74" s="24"/>
-      <c r="M74" s="24"/>
-      <c r="N74" s="24"/>
-      <c r="O74" s="24"/>
-      <c r="P74" s="24"/>
-      <c r="Q74" s="24"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="23"/>
+      <c r="M74" s="23"/>
+      <c r="N74" s="23"/>
+      <c r="O74" s="23"/>
+      <c r="P74" s="23"/>
+      <c r="Q74" s="23"/>
     </row>
     <row r="75" spans="1:17">
-      <c r="A75" s="24"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="24"/>
-      <c r="J75" s="24"/>
-      <c r="K75" s="24"/>
-      <c r="L75" s="24"/>
-      <c r="M75" s="24"/>
-      <c r="N75" s="24"/>
-      <c r="O75" s="24"/>
-      <c r="P75" s="24"/>
-      <c r="Q75" s="24"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="23"/>
+      <c r="M75" s="23"/>
+      <c r="N75" s="23"/>
+      <c r="O75" s="23"/>
+      <c r="P75" s="23"/>
+      <c r="Q75" s="23"/>
     </row>
     <row r="76" spans="1:17">
-      <c r="A76" s="24"/>
-      <c r="B76" s="24" t="s">
+      <c r="A76" s="23"/>
+      <c r="B76" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="24"/>
-      <c r="M76" s="24"/>
-      <c r="N76" s="24"/>
-      <c r="O76" s="24"/>
-      <c r="P76" s="24"/>
-      <c r="Q76" s="24"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="23"/>
+      <c r="K76" s="23"/>
+      <c r="L76" s="23"/>
+      <c r="M76" s="23"/>
+      <c r="N76" s="23"/>
+      <c r="O76" s="23"/>
+      <c r="P76" s="23"/>
+      <c r="Q76" s="23"/>
     </row>
     <row r="77" spans="1:17">
-      <c r="A77" s="24"/>
-      <c r="B77" s="24" t="s">
+      <c r="A77" s="23"/>
+      <c r="B77" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="24"/>
-      <c r="J77" s="24"/>
-      <c r="K77" s="24"/>
-      <c r="L77" s="24"/>
-      <c r="M77" s="24"/>
-      <c r="N77" s="24"/>
-      <c r="O77" s="24"/>
-      <c r="P77" s="24"/>
-      <c r="Q77" s="24"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="23"/>
+      <c r="M77" s="23"/>
+      <c r="N77" s="23"/>
+      <c r="O77" s="23"/>
+      <c r="P77" s="23"/>
+      <c r="Q77" s="23"/>
     </row>
     <row r="78" spans="1:17">
-      <c r="A78" s="24"/>
-      <c r="B78" s="24" t="s">
+      <c r="A78" s="23"/>
+      <c r="B78" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
-      <c r="K78" s="24"/>
-      <c r="L78" s="24"/>
-      <c r="M78" s="24"/>
-      <c r="N78" s="24"/>
-      <c r="O78" s="24"/>
-      <c r="P78" s="24"/>
-      <c r="Q78" s="24"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="23"/>
+      <c r="M78" s="23"/>
+      <c r="N78" s="23"/>
+      <c r="O78" s="23"/>
+      <c r="P78" s="23"/>
+      <c r="Q78" s="23"/>
     </row>
     <row r="79" spans="1:17">
-      <c r="A79" s="24"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="24" t="s">
+      <c r="A79" s="23"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="24"/>
-      <c r="K79" s="24"/>
-      <c r="L79" s="24"/>
-      <c r="M79" s="24"/>
-      <c r="N79" s="24"/>
-      <c r="O79" s="24"/>
-      <c r="P79" s="24"/>
-      <c r="Q79" s="24"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23"/>
+      <c r="K79" s="23"/>
+      <c r="L79" s="23"/>
+      <c r="M79" s="23"/>
+      <c r="N79" s="23"/>
+      <c r="O79" s="23"/>
+      <c r="P79" s="23"/>
+      <c r="Q79" s="23"/>
     </row>
     <row r="80" spans="1:17">
-      <c r="A80" s="24"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24"/>
-      <c r="K80" s="24"/>
-      <c r="L80" s="24"/>
-      <c r="M80" s="24"/>
-      <c r="N80" s="24"/>
-      <c r="O80" s="24"/>
-      <c r="P80" s="24"/>
-      <c r="Q80" s="24"/>
+      <c r="A80" s="23"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="23"/>
+      <c r="K80" s="23"/>
+      <c r="L80" s="23"/>
+      <c r="M80" s="23"/>
+      <c r="N80" s="23"/>
+      <c r="O80" s="23"/>
+      <c r="P80" s="23"/>
+      <c r="Q80" s="23"/>
     </row>
     <row r="81" spans="1:17">
-      <c r="A81" s="24"/>
-      <c r="B81" s="24" t="s">
+      <c r="A81" s="23"/>
+      <c r="B81" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="24"/>
-      <c r="J81" s="24"/>
-      <c r="K81" s="24"/>
-      <c r="L81" s="24"/>
-      <c r="M81" s="24"/>
-      <c r="N81" s="24"/>
-      <c r="O81" s="24"/>
-      <c r="P81" s="24"/>
-      <c r="Q81" s="24"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="23"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="23"/>
+      <c r="M81" s="23"/>
+      <c r="N81" s="23"/>
+      <c r="O81" s="23"/>
+      <c r="P81" s="23"/>
+      <c r="Q81" s="23"/>
     </row>
     <row r="82" spans="1:17">
-      <c r="A82" s="24"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="24" t="s">
+      <c r="A82" s="23"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="24"/>
-      <c r="I82" s="24"/>
-      <c r="J82" s="24"/>
-      <c r="K82" s="24"/>
-      <c r="L82" s="24"/>
-      <c r="M82" s="24"/>
-      <c r="N82" s="24"/>
-      <c r="O82" s="24"/>
-      <c r="P82" s="24"/>
-      <c r="Q82" s="24"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="23"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="23"/>
+      <c r="M82" s="23"/>
+      <c r="N82" s="23"/>
+      <c r="O82" s="23"/>
+      <c r="P82" s="23"/>
+      <c r="Q82" s="23"/>
     </row>
     <row r="83" spans="1:17">
-      <c r="A83" s="24"/>
-      <c r="B83" s="24"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="24"/>
-      <c r="M83" s="24"/>
-      <c r="N83" s="24"/>
-      <c r="O83" s="24"/>
-      <c r="P83" s="24"/>
-      <c r="Q83" s="24"/>
+      <c r="A83" s="23"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="23"/>
+      <c r="K83" s="23"/>
+      <c r="L83" s="23"/>
+      <c r="M83" s="23"/>
+      <c r="N83" s="23"/>
+      <c r="O83" s="23"/>
+      <c r="P83" s="23"/>
+      <c r="Q83" s="23"/>
     </row>
     <row r="84" spans="1:17">
-      <c r="A84" s="24"/>
-      <c r="B84" s="24" t="s">
+      <c r="A84" s="23"/>
+      <c r="B84" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="24"/>
-      <c r="J84" s="24"/>
-      <c r="K84" s="24"/>
-      <c r="L84" s="24"/>
-      <c r="M84" s="24"/>
-      <c r="N84" s="24"/>
-      <c r="O84" s="24"/>
-      <c r="P84" s="24"/>
-      <c r="Q84" s="24"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="23"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="23"/>
+      <c r="M84" s="23"/>
+      <c r="N84" s="23"/>
+      <c r="O84" s="23"/>
+      <c r="P84" s="23"/>
+      <c r="Q84" s="23"/>
     </row>
     <row r="85" spans="1:17">
-      <c r="A85" s="24"/>
-      <c r="B85" s="24"/>
-      <c r="C85" s="24" t="s">
+      <c r="A85" s="23"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="24"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="24"/>
-      <c r="M85" s="24"/>
-      <c r="N85" s="24"/>
-      <c r="O85" s="24"/>
-      <c r="P85" s="24"/>
-      <c r="Q85" s="24"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="23"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="23"/>
+      <c r="M85" s="23"/>
+      <c r="N85" s="23"/>
+      <c r="O85" s="23"/>
+      <c r="P85" s="23"/>
+      <c r="Q85" s="23"/>
     </row>
     <row r="86" spans="1:17">
-      <c r="A86" s="24"/>
-      <c r="B86" s="24" t="s">
+      <c r="A86" s="23"/>
+      <c r="B86" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
-      <c r="I86" s="24"/>
-      <c r="J86" s="24"/>
-      <c r="K86" s="24"/>
-      <c r="L86" s="24"/>
-      <c r="M86" s="24"/>
-      <c r="N86" s="24"/>
-      <c r="O86" s="24"/>
-      <c r="P86" s="24"/>
-      <c r="Q86" s="24"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="23"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="23"/>
+      <c r="M86" s="23"/>
+      <c r="N86" s="23"/>
+      <c r="O86" s="23"/>
+      <c r="P86" s="23"/>
+      <c r="Q86" s="23"/>
     </row>
     <row r="87" spans="1:17">
-      <c r="A87" s="24"/>
-      <c r="B87" s="25" t="s">
+      <c r="A87" s="23"/>
+      <c r="B87" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="24"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="24"/>
-      <c r="K87" s="24"/>
-      <c r="L87" s="24"/>
-      <c r="M87" s="24"/>
-      <c r="N87" s="24"/>
-      <c r="O87" s="24"/>
-      <c r="P87" s="24"/>
-      <c r="Q87" s="24"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="23"/>
+      <c r="L87" s="23"/>
+      <c r="M87" s="23"/>
+      <c r="N87" s="23"/>
+      <c r="O87" s="23"/>
+      <c r="P87" s="23"/>
+      <c r="Q87" s="23"/>
     </row>
     <row r="88" spans="1:17">
-      <c r="A88" s="24"/>
-      <c r="B88" s="24" t="s">
+      <c r="A88" s="23"/>
+      <c r="B88" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="24"/>
-      <c r="J88" s="24"/>
-      <c r="K88" s="24"/>
-      <c r="L88" s="24"/>
-      <c r="M88" s="24"/>
-      <c r="N88" s="24"/>
-      <c r="O88" s="24"/>
-      <c r="P88" s="24"/>
-      <c r="Q88" s="24"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="23"/>
+      <c r="I88" s="23"/>
+      <c r="J88" s="23"/>
+      <c r="K88" s="23"/>
+      <c r="L88" s="23"/>
+      <c r="M88" s="23"/>
+      <c r="N88" s="23"/>
+      <c r="O88" s="23"/>
+      <c r="P88" s="23"/>
+      <c r="Q88" s="23"/>
     </row>
     <row r="89" spans="1:17">
-      <c r="A89" s="24"/>
-      <c r="B89" s="24" t="s">
+      <c r="A89" s="23"/>
+      <c r="B89" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="24"/>
-      <c r="K89" s="24"/>
-      <c r="L89" s="24"/>
-      <c r="M89" s="24"/>
-      <c r="N89" s="24"/>
-      <c r="O89" s="24"/>
-      <c r="P89" s="24"/>
-      <c r="Q89" s="24"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="23"/>
+      <c r="L89" s="23"/>
+      <c r="M89" s="23"/>
+      <c r="N89" s="23"/>
+      <c r="O89" s="23"/>
+      <c r="P89" s="23"/>
+      <c r="Q89" s="23"/>
     </row>
     <row r="90" spans="1:17">
-      <c r="A90" s="24"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="24"/>
-      <c r="H90" s="24"/>
-      <c r="I90" s="24"/>
-      <c r="J90" s="24"/>
-      <c r="K90" s="24"/>
-      <c r="L90" s="24"/>
-      <c r="M90" s="24"/>
-      <c r="N90" s="24"/>
-      <c r="O90" s="24"/>
-      <c r="P90" s="24"/>
-      <c r="Q90" s="24"/>
+      <c r="A90" s="23"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="23"/>
+      <c r="J90" s="23"/>
+      <c r="K90" s="23"/>
+      <c r="L90" s="23"/>
+      <c r="M90" s="23"/>
+      <c r="N90" s="23"/>
+      <c r="O90" s="23"/>
+      <c r="P90" s="23"/>
+      <c r="Q90" s="23"/>
     </row>
     <row r="91" spans="1:17">
-      <c r="A91" s="24"/>
-      <c r="B91" s="24" t="s">
+      <c r="A91" s="23"/>
+      <c r="B91" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="24"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="24"/>
-      <c r="K91" s="24"/>
-      <c r="L91" s="24"/>
-      <c r="M91" s="24"/>
-      <c r="N91" s="24"/>
-      <c r="O91" s="24"/>
-      <c r="P91" s="24"/>
-      <c r="Q91" s="24"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="23"/>
+      <c r="M91" s="23"/>
+      <c r="N91" s="23"/>
+      <c r="O91" s="23"/>
+      <c r="P91" s="23"/>
+      <c r="Q91" s="23"/>
     </row>
     <row r="92" spans="1:17">
-      <c r="A92" s="24"/>
-      <c r="B92" s="24" t="s">
+      <c r="A92" s="23"/>
+      <c r="B92" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="24"/>
-      <c r="J92" s="24"/>
-      <c r="K92" s="24"/>
-      <c r="L92" s="24"/>
-      <c r="M92" s="24"/>
-      <c r="N92" s="24"/>
-      <c r="O92" s="24"/>
-      <c r="P92" s="24"/>
-      <c r="Q92" s="24"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="23"/>
+      <c r="J92" s="23"/>
+      <c r="K92" s="23"/>
+      <c r="L92" s="23"/>
+      <c r="M92" s="23"/>
+      <c r="N92" s="23"/>
+      <c r="O92" s="23"/>
+      <c r="P92" s="23"/>
+      <c r="Q92" s="23"/>
     </row>
     <row r="93" spans="1:17">
-      <c r="A93" s="24"/>
-      <c r="B93" s="24"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="24"/>
-      <c r="I93" s="24"/>
-      <c r="J93" s="24"/>
-      <c r="K93" s="24"/>
-      <c r="L93" s="24"/>
-      <c r="M93" s="24"/>
-      <c r="N93" s="24"/>
-      <c r="O93" s="24"/>
-      <c r="P93" s="24"/>
-      <c r="Q93" s="24"/>
+      <c r="A93" s="23"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="23"/>
+      <c r="J93" s="23"/>
+      <c r="K93" s="23"/>
+      <c r="L93" s="23"/>
+      <c r="M93" s="23"/>
+      <c r="N93" s="23"/>
+      <c r="O93" s="23"/>
+      <c r="P93" s="23"/>
+      <c r="Q93" s="23"/>
     </row>
     <row r="94" spans="1:17">
-      <c r="A94" s="24"/>
-      <c r="B94" s="24" t="s">
+      <c r="A94" s="23"/>
+      <c r="B94" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="24"/>
-      <c r="K94" s="24"/>
-      <c r="L94" s="24"/>
-      <c r="M94" s="24"/>
-      <c r="N94" s="24"/>
-      <c r="O94" s="24"/>
-      <c r="P94" s="24"/>
-      <c r="Q94" s="24"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="23"/>
+      <c r="K94" s="23"/>
+      <c r="L94" s="23"/>
+      <c r="M94" s="23"/>
+      <c r="N94" s="23"/>
+      <c r="O94" s="23"/>
+      <c r="P94" s="23"/>
+      <c r="Q94" s="23"/>
     </row>
     <row r="95" spans="1:17">
-      <c r="A95" s="24"/>
-      <c r="B95" s="24" t="s">
+      <c r="A95" s="23"/>
+      <c r="B95" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C95" s="24"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="24"/>
-      <c r="I95" s="24"/>
-      <c r="J95" s="24"/>
-      <c r="K95" s="24"/>
-      <c r="L95" s="24"/>
-      <c r="M95" s="24"/>
-      <c r="N95" s="24"/>
-      <c r="O95" s="24"/>
-      <c r="P95" s="24"/>
-      <c r="Q95" s="24"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="23"/>
+      <c r="K95" s="23"/>
+      <c r="L95" s="23"/>
+      <c r="M95" s="23"/>
+      <c r="N95" s="23"/>
+      <c r="O95" s="23"/>
+      <c r="P95" s="23"/>
+      <c r="Q95" s="23"/>
     </row>
     <row r="96" spans="1:17">
-      <c r="A96" s="24"/>
-      <c r="B96" s="24" t="s">
+      <c r="A96" s="23"/>
+      <c r="B96" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="24"/>
-      <c r="I96" s="24"/>
-      <c r="J96" s="24"/>
-      <c r="K96" s="24"/>
-      <c r="L96" s="24"/>
-      <c r="M96" s="24"/>
-      <c r="N96" s="24"/>
-      <c r="O96" s="24"/>
-      <c r="P96" s="24"/>
-      <c r="Q96" s="24"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="23"/>
+      <c r="K96" s="23"/>
+      <c r="L96" s="23"/>
+      <c r="M96" s="23"/>
+      <c r="N96" s="23"/>
+      <c r="O96" s="23"/>
+      <c r="P96" s="23"/>
+      <c r="Q96" s="23"/>
     </row>
     <row r="97" spans="1:21">
-      <c r="A97" s="24"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="24"/>
-      <c r="I97" s="24"/>
-      <c r="J97" s="24"/>
-      <c r="K97" s="24"/>
-      <c r="L97" s="24"/>
-      <c r="M97" s="24"/>
-      <c r="N97" s="24"/>
-      <c r="O97" s="24"/>
-      <c r="P97" s="24"/>
-      <c r="Q97" s="24"/>
+      <c r="A97" s="23"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="23"/>
+      <c r="I97" s="23"/>
+      <c r="J97" s="23"/>
+      <c r="K97" s="23"/>
+      <c r="L97" s="23"/>
+      <c r="M97" s="23"/>
+      <c r="N97" s="23"/>
+      <c r="O97" s="23"/>
+      <c r="P97" s="23"/>
+      <c r="Q97" s="23"/>
     </row>
     <row r="98" spans="1:21">
-      <c r="A98" s="24"/>
-      <c r="B98" s="24" t="s">
+      <c r="A98" s="23"/>
+      <c r="B98" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="24"/>
-      <c r="I98" s="24"/>
-      <c r="J98" s="24"/>
-      <c r="K98" s="24"/>
-      <c r="L98" s="24"/>
-      <c r="M98" s="24"/>
-      <c r="N98" s="24"/>
-      <c r="O98" s="24"/>
-      <c r="P98" s="24"/>
-      <c r="Q98" s="24"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="23"/>
+      <c r="I98" s="23"/>
+      <c r="J98" s="23"/>
+      <c r="K98" s="23"/>
+      <c r="L98" s="23"/>
+      <c r="M98" s="23"/>
+      <c r="N98" s="23"/>
+      <c r="O98" s="23"/>
+      <c r="P98" s="23"/>
+      <c r="Q98" s="23"/>
     </row>
     <row r="99" spans="1:21">
-      <c r="A99" s="24"/>
-      <c r="B99" s="24" t="s">
+      <c r="A99" s="23"/>
+      <c r="B99" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="24"/>
-      <c r="I99" s="24"/>
-      <c r="J99" s="24"/>
-      <c r="K99" s="24"/>
-      <c r="L99" s="24"/>
-      <c r="M99" s="24"/>
-      <c r="N99" s="24"/>
-      <c r="O99" s="24"/>
-      <c r="P99" s="24"/>
-      <c r="Q99" s="24"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="23"/>
+      <c r="I99" s="23"/>
+      <c r="J99" s="23"/>
+      <c r="K99" s="23"/>
+      <c r="L99" s="23"/>
+      <c r="M99" s="23"/>
+      <c r="N99" s="23"/>
+      <c r="O99" s="23"/>
+      <c r="P99" s="23"/>
+      <c r="Q99" s="23"/>
     </row>
     <row r="100" spans="1:21">
-      <c r="A100" s="24"/>
-      <c r="B100" s="24"/>
-      <c r="C100" s="24" t="s">
+      <c r="A100" s="23"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="24"/>
-      <c r="I100" s="24"/>
-      <c r="J100" s="24"/>
-      <c r="K100" s="24"/>
-      <c r="L100" s="24"/>
-      <c r="M100" s="24"/>
-      <c r="N100" s="24"/>
-      <c r="O100" s="24"/>
-      <c r="P100" s="24"/>
-      <c r="Q100" s="24"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="23"/>
+      <c r="I100" s="23"/>
+      <c r="J100" s="23"/>
+      <c r="K100" s="23"/>
+      <c r="L100" s="23"/>
+      <c r="M100" s="23"/>
+      <c r="N100" s="23"/>
+      <c r="O100" s="23"/>
+      <c r="P100" s="23"/>
+      <c r="Q100" s="23"/>
     </row>
     <row r="101" spans="1:21">
-      <c r="A101" s="24"/>
-      <c r="B101" s="24" t="s">
+      <c r="A101" s="23"/>
+      <c r="B101" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C101" s="24" t="s">
+      <c r="C101" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="24"/>
-      <c r="I101" s="24"/>
-      <c r="J101" s="24"/>
-      <c r="K101" s="24"/>
-      <c r="L101" s="24"/>
-      <c r="M101" s="24"/>
-      <c r="N101" s="24"/>
-      <c r="O101" s="24"/>
-      <c r="P101" s="24"/>
-      <c r="Q101" s="24"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="23"/>
+      <c r="I101" s="23"/>
+      <c r="J101" s="23"/>
+      <c r="K101" s="23"/>
+      <c r="L101" s="23"/>
+      <c r="M101" s="23"/>
+      <c r="N101" s="23"/>
+      <c r="O101" s="23"/>
+      <c r="P101" s="23"/>
+      <c r="Q101" s="23"/>
     </row>
     <row r="102" spans="1:21">
-      <c r="A102" s="24"/>
-      <c r="B102" s="24"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
-      <c r="H102" s="24"/>
-      <c r="I102" s="24"/>
-      <c r="J102" s="24"/>
-      <c r="K102" s="24"/>
-      <c r="L102" s="24"/>
-      <c r="M102" s="24"/>
-      <c r="N102" s="24"/>
-      <c r="O102" s="24"/>
-      <c r="P102" s="24"/>
-      <c r="Q102" s="24"/>
+      <c r="A102" s="23"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="23"/>
+      <c r="I102" s="23"/>
+      <c r="J102" s="23"/>
+      <c r="K102" s="23"/>
+      <c r="L102" s="23"/>
+      <c r="M102" s="23"/>
+      <c r="N102" s="23"/>
+      <c r="O102" s="23"/>
+      <c r="P102" s="23"/>
+      <c r="Q102" s="23"/>
     </row>
     <row r="103" spans="1:21">
-      <c r="A103" s="24"/>
-      <c r="B103" s="24"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="24"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="24"/>
-      <c r="G103" s="24"/>
-      <c r="H103" s="24"/>
-      <c r="I103" s="24"/>
-      <c r="J103" s="24"/>
-      <c r="K103" s="24"/>
-      <c r="L103" s="24"/>
-      <c r="M103" s="24"/>
-      <c r="N103" s="24"/>
-      <c r="O103" s="24"/>
-      <c r="P103" s="24"/>
-      <c r="Q103" s="24"/>
+      <c r="A103" s="23"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="23"/>
+      <c r="H103" s="23"/>
+      <c r="I103" s="23"/>
+      <c r="J103" s="23"/>
+      <c r="K103" s="23"/>
+      <c r="L103" s="23"/>
+      <c r="M103" s="23"/>
+      <c r="N103" s="23"/>
+      <c r="O103" s="23"/>
+      <c r="P103" s="23"/>
+      <c r="Q103" s="23"/>
     </row>
     <row r="104" spans="1:21">
-      <c r="A104" s="24"/>
-      <c r="B104" s="24"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="24"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="24"/>
-      <c r="G104" s="24"/>
-      <c r="H104" s="24"/>
-      <c r="I104" s="24"/>
-      <c r="J104" s="24"/>
-      <c r="K104" s="24"/>
-      <c r="L104" s="24"/>
-      <c r="M104" s="24"/>
-      <c r="N104" s="24"/>
-      <c r="O104" s="24"/>
-      <c r="P104" s="24"/>
-      <c r="Q104" s="24"/>
+      <c r="A104" s="23"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="23"/>
+      <c r="H104" s="23"/>
+      <c r="I104" s="23"/>
+      <c r="J104" s="23"/>
+      <c r="K104" s="23"/>
+      <c r="L104" s="23"/>
+      <c r="M104" s="23"/>
+      <c r="N104" s="23"/>
+      <c r="O104" s="23"/>
+      <c r="P104" s="23"/>
+      <c r="Q104" s="23"/>
     </row>
     <row r="105" spans="1:21">
-      <c r="A105" s="24"/>
-      <c r="B105" s="24"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="24"/>
-      <c r="E105" s="24"/>
-      <c r="F105" s="24"/>
-      <c r="G105" s="24"/>
-      <c r="H105" s="24"/>
-      <c r="I105" s="24"/>
-      <c r="J105" s="24"/>
-      <c r="K105" s="24"/>
-      <c r="L105" s="24"/>
-      <c r="M105" s="24"/>
-      <c r="N105" s="24"/>
-      <c r="O105" s="24"/>
-      <c r="P105" s="24"/>
-      <c r="Q105" s="24"/>
+      <c r="A105" s="23"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="23"/>
+      <c r="F105" s="23"/>
+      <c r="G105" s="23"/>
+      <c r="H105" s="23"/>
+      <c r="I105" s="23"/>
+      <c r="J105" s="23"/>
+      <c r="K105" s="23"/>
+      <c r="L105" s="23"/>
+      <c r="M105" s="23"/>
+      <c r="N105" s="23"/>
+      <c r="O105" s="23"/>
+      <c r="P105" s="23"/>
+      <c r="Q105" s="23"/>
     </row>
     <row r="106" spans="1:21">
-      <c r="A106" s="24"/>
-      <c r="B106" s="24" t="s">
+      <c r="A106" s="23"/>
+      <c r="B106" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C106" s="24"/>
-      <c r="D106" s="24"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="24"/>
-      <c r="H106" s="24"/>
-      <c r="I106" s="24"/>
-      <c r="J106" s="24"/>
-      <c r="K106" s="24"/>
-      <c r="L106" s="24"/>
-      <c r="M106" s="24"/>
-      <c r="N106" s="24"/>
-      <c r="O106" s="24"/>
-      <c r="P106" s="24"/>
-      <c r="Q106" s="24"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="23"/>
+      <c r="F106" s="23"/>
+      <c r="G106" s="23"/>
+      <c r="H106" s="23"/>
+      <c r="I106" s="23"/>
+      <c r="J106" s="23"/>
+      <c r="K106" s="23"/>
+      <c r="L106" s="23"/>
+      <c r="M106" s="23"/>
+      <c r="N106" s="23"/>
+      <c r="O106" s="23"/>
+      <c r="P106" s="23"/>
+      <c r="Q106" s="23"/>
     </row>
     <row r="107" spans="1:21">
-      <c r="A107" s="24"/>
-      <c r="B107" s="24"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="24"/>
-      <c r="E107" s="24"/>
-      <c r="F107" s="24"/>
-      <c r="G107" s="24"/>
-      <c r="H107" s="24"/>
-      <c r="I107" s="24"/>
-      <c r="J107" s="24"/>
-      <c r="K107" s="24"/>
-      <c r="L107" s="24"/>
-      <c r="M107" s="24"/>
-      <c r="N107" s="24"/>
-      <c r="O107" s="24"/>
-      <c r="P107" s="24"/>
-      <c r="Q107" s="24"/>
+      <c r="A107" s="23"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="23"/>
+      <c r="G107" s="23"/>
+      <c r="H107" s="23"/>
+      <c r="I107" s="23"/>
+      <c r="J107" s="23"/>
+      <c r="K107" s="23"/>
+      <c r="L107" s="23"/>
+      <c r="M107" s="23"/>
+      <c r="N107" s="23"/>
+      <c r="O107" s="23"/>
+      <c r="P107" s="23"/>
+      <c r="Q107" s="23"/>
     </row>
     <row r="108" spans="1:21">
-      <c r="A108" s="24"/>
-      <c r="B108" s="24" t="s">
+      <c r="A108" s="23"/>
+      <c r="B108" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="24"/>
-      <c r="G108" s="24"/>
-      <c r="H108" s="24"/>
-      <c r="I108" s="24"/>
-      <c r="J108" s="24"/>
-      <c r="K108" s="24"/>
-      <c r="L108" s="24"/>
-      <c r="M108" s="24"/>
-      <c r="N108" s="24"/>
-      <c r="O108" s="24"/>
-      <c r="P108" s="24"/>
-      <c r="Q108" s="24"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="23"/>
+      <c r="H108" s="23"/>
+      <c r="I108" s="23"/>
+      <c r="J108" s="23"/>
+      <c r="K108" s="23"/>
+      <c r="L108" s="23"/>
+      <c r="M108" s="23"/>
+      <c r="N108" s="23"/>
+      <c r="O108" s="23"/>
+      <c r="P108" s="23"/>
+      <c r="Q108" s="23"/>
     </row>
     <row r="109" spans="1:21">
-      <c r="A109" s="24"/>
-      <c r="B109" s="24" t="s">
+      <c r="A109" s="23"/>
+      <c r="B109" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
-      <c r="E109" s="24"/>
-      <c r="F109" s="24"/>
-      <c r="G109" s="24"/>
-      <c r="H109" s="24"/>
-      <c r="I109" s="24"/>
-      <c r="J109" s="24"/>
-      <c r="K109" s="24"/>
-      <c r="L109" s="24"/>
-      <c r="M109" s="24"/>
-      <c r="N109" s="24"/>
-      <c r="O109" s="24"/>
-      <c r="P109" s="24"/>
-      <c r="Q109" s="24"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="23"/>
+      <c r="H109" s="23"/>
+      <c r="I109" s="23"/>
+      <c r="J109" s="23"/>
+      <c r="K109" s="23"/>
+      <c r="L109" s="23"/>
+      <c r="M109" s="23"/>
+      <c r="N109" s="23"/>
+      <c r="O109" s="23"/>
+      <c r="P109" s="23"/>
+      <c r="Q109" s="23"/>
     </row>
     <row r="110" spans="1:21">
-      <c r="A110" s="24"/>
-      <c r="B110" s="24"/>
-      <c r="C110" s="24" t="s">
+      <c r="A110" s="23"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D110" s="24"/>
-      <c r="E110" s="24"/>
-      <c r="F110" s="24"/>
-      <c r="G110" s="24"/>
-      <c r="H110" s="24"/>
-      <c r="I110" s="24"/>
-      <c r="J110" s="24"/>
-      <c r="K110" s="24"/>
-      <c r="L110" s="24"/>
-      <c r="M110" s="24"/>
-      <c r="N110" s="24"/>
-      <c r="O110" s="24"/>
-      <c r="P110" s="24"/>
-      <c r="Q110" s="24"/>
-    </row>
-    <row r="111" spans="1:21" ht="23.4">
-      <c r="A111" s="24"/>
-      <c r="B111" s="24" t="s">
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="23"/>
+      <c r="H110" s="23"/>
+      <c r="I110" s="23"/>
+      <c r="J110" s="23"/>
+      <c r="K110" s="23"/>
+      <c r="L110" s="23"/>
+      <c r="M110" s="23"/>
+      <c r="N110" s="23"/>
+      <c r="O110" s="23"/>
+      <c r="P110" s="23"/>
+      <c r="Q110" s="23"/>
+    </row>
+    <row r="111" spans="1:21">
+      <c r="A111" s="23"/>
+      <c r="B111" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C111" s="24"/>
-      <c r="D111" s="24"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="24"/>
-      <c r="G111" s="24"/>
-      <c r="H111" s="24"/>
-      <c r="I111" s="24"/>
-      <c r="J111" s="24"/>
-      <c r="K111" s="24"/>
-      <c r="L111" s="24"/>
-      <c r="M111" s="24"/>
-      <c r="N111" s="24"/>
-      <c r="O111" s="24"/>
-      <c r="P111" s="24"/>
-      <c r="Q111" s="24"/>
-      <c r="U111" s="27" t="s">
+      <c r="C111" s="23"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="23"/>
+      <c r="G111" s="23"/>
+      <c r="H111" s="23"/>
+      <c r="I111" s="23"/>
+      <c r="J111" s="23"/>
+      <c r="K111" s="23"/>
+      <c r="L111" s="23"/>
+      <c r="M111" s="23"/>
+      <c r="N111" s="23"/>
+      <c r="O111" s="23"/>
+      <c r="P111" s="23"/>
+      <c r="Q111" s="23"/>
+      <c r="U111" s="25" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:21">
-      <c r="A112" s="24"/>
-      <c r="B112" s="24"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="24"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="24"/>
-      <c r="G112" s="24"/>
-      <c r="H112" s="24"/>
-      <c r="I112" s="24"/>
-      <c r="J112" s="24"/>
-      <c r="K112" s="24"/>
-      <c r="L112" s="24"/>
-      <c r="M112" s="24"/>
-      <c r="N112" s="24"/>
-      <c r="O112" s="24"/>
-      <c r="P112" s="24"/>
-      <c r="Q112" s="24"/>
+      <c r="A112" s="23"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="23"/>
+      <c r="H112" s="23"/>
+      <c r="I112" s="23"/>
+      <c r="J112" s="23"/>
+      <c r="K112" s="23"/>
+      <c r="L112" s="23"/>
+      <c r="M112" s="23"/>
+      <c r="N112" s="23"/>
+      <c r="O112" s="23"/>
+      <c r="P112" s="23"/>
+      <c r="Q112" s="23"/>
     </row>
     <row r="113" spans="1:17">
-      <c r="A113" s="24"/>
-      <c r="B113" s="24"/>
-      <c r="C113" s="24" t="s">
+      <c r="A113" s="23"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D113" s="24"/>
-      <c r="E113" s="24"/>
-      <c r="F113" s="24"/>
-      <c r="G113" s="24"/>
-      <c r="H113" s="24"/>
-      <c r="I113" s="24"/>
-      <c r="J113" s="24"/>
-      <c r="K113" s="24"/>
-      <c r="L113" s="24"/>
-      <c r="M113" s="24"/>
-      <c r="N113" s="24"/>
-      <c r="O113" s="24"/>
-      <c r="P113" s="24"/>
-      <c r="Q113" s="24"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="23"/>
+      <c r="G113" s="23"/>
+      <c r="H113" s="23"/>
+      <c r="I113" s="23"/>
+      <c r="J113" s="23"/>
+      <c r="K113" s="23"/>
+      <c r="L113" s="23"/>
+      <c r="M113" s="23"/>
+      <c r="N113" s="23"/>
+      <c r="O113" s="23"/>
+      <c r="P113" s="23"/>
+      <c r="Q113" s="23"/>
     </row>
     <row r="114" spans="1:17">
-      <c r="A114" s="24"/>
-      <c r="B114" s="24" t="s">
+      <c r="A114" s="23"/>
+      <c r="B114" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="24"/>
-      <c r="H114" s="24"/>
-      <c r="I114" s="24"/>
-      <c r="J114" s="24"/>
-      <c r="K114" s="24"/>
-      <c r="L114" s="24"/>
-      <c r="M114" s="24"/>
-      <c r="N114" s="24"/>
-      <c r="O114" s="24"/>
-      <c r="P114" s="24"/>
-      <c r="Q114" s="24"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="23"/>
+      <c r="H114" s="23"/>
+      <c r="I114" s="23"/>
+      <c r="J114" s="23"/>
+      <c r="K114" s="23"/>
+      <c r="L114" s="23"/>
+      <c r="M114" s="23"/>
+      <c r="N114" s="23"/>
+      <c r="O114" s="23"/>
+      <c r="P114" s="23"/>
+      <c r="Q114" s="23"/>
     </row>
     <row r="115" spans="1:17">
-      <c r="A115" s="24"/>
-      <c r="B115" s="24"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="24"/>
-      <c r="H115" s="24"/>
-      <c r="I115" s="24"/>
-      <c r="J115" s="24"/>
-      <c r="K115" s="24"/>
-      <c r="L115" s="24"/>
-      <c r="M115" s="24"/>
-      <c r="N115" s="24"/>
-      <c r="O115" s="24"/>
-      <c r="P115" s="24"/>
-      <c r="Q115" s="24"/>
+      <c r="A115" s="23"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="23"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="23"/>
+      <c r="G115" s="23"/>
+      <c r="H115" s="23"/>
+      <c r="I115" s="23"/>
+      <c r="J115" s="23"/>
+      <c r="K115" s="23"/>
+      <c r="L115" s="23"/>
+      <c r="M115" s="23"/>
+      <c r="N115" s="23"/>
+      <c r="O115" s="23"/>
+      <c r="P115" s="23"/>
+      <c r="Q115" s="23"/>
     </row>
     <row r="116" spans="1:17">
-      <c r="A116" s="24"/>
-      <c r="B116" s="24"/>
-      <c r="C116" s="24" t="s">
+      <c r="A116" s="23"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D116" s="24"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="24"/>
-      <c r="H116" s="24"/>
-      <c r="I116" s="24"/>
-      <c r="J116" s="24"/>
-      <c r="K116" s="24"/>
-      <c r="L116" s="24"/>
-      <c r="M116" s="24"/>
-      <c r="N116" s="24"/>
-      <c r="O116" s="24"/>
-      <c r="P116" s="24"/>
-      <c r="Q116" s="24"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="23"/>
+      <c r="F116" s="23"/>
+      <c r="G116" s="23"/>
+      <c r="H116" s="23"/>
+      <c r="I116" s="23"/>
+      <c r="J116" s="23"/>
+      <c r="K116" s="23"/>
+      <c r="L116" s="23"/>
+      <c r="M116" s="23"/>
+      <c r="N116" s="23"/>
+      <c r="O116" s="23"/>
+      <c r="P116" s="23"/>
+      <c r="Q116" s="23"/>
     </row>
     <row r="117" spans="1:17">
-      <c r="A117" s="24"/>
-      <c r="B117" s="24" t="s">
+      <c r="A117" s="23"/>
+      <c r="B117" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C117" s="24"/>
-      <c r="D117" s="24"/>
-      <c r="E117" s="24"/>
-      <c r="F117" s="24"/>
-      <c r="G117" s="24"/>
-      <c r="H117" s="24"/>
-      <c r="I117" s="24"/>
-      <c r="J117" s="24"/>
-      <c r="K117" s="24"/>
-      <c r="L117" s="24"/>
-      <c r="M117" s="24"/>
-      <c r="N117" s="24"/>
-      <c r="O117" s="24"/>
-      <c r="P117" s="24"/>
-      <c r="Q117" s="24"/>
+      <c r="C117" s="23"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="23"/>
+      <c r="G117" s="23"/>
+      <c r="H117" s="23"/>
+      <c r="I117" s="23"/>
+      <c r="J117" s="23"/>
+      <c r="K117" s="23"/>
+      <c r="L117" s="23"/>
+      <c r="M117" s="23"/>
+      <c r="N117" s="23"/>
+      <c r="O117" s="23"/>
+      <c r="P117" s="23"/>
+      <c r="Q117" s="23"/>
     </row>
     <row r="118" spans="1:17">
-      <c r="A118" s="24"/>
-      <c r="B118" s="24"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="24"/>
-      <c r="G118" s="24"/>
-      <c r="H118" s="24"/>
-      <c r="I118" s="24"/>
-      <c r="J118" s="24"/>
-      <c r="K118" s="24"/>
-      <c r="L118" s="24"/>
-      <c r="M118" s="24"/>
-      <c r="N118" s="24"/>
-      <c r="O118" s="24"/>
-      <c r="P118" s="24"/>
-      <c r="Q118" s="24"/>
+      <c r="A118" s="23"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="23"/>
+      <c r="D118" s="23"/>
+      <c r="E118" s="23"/>
+      <c r="F118" s="23"/>
+      <c r="G118" s="23"/>
+      <c r="H118" s="23"/>
+      <c r="I118" s="23"/>
+      <c r="J118" s="23"/>
+      <c r="K118" s="23"/>
+      <c r="L118" s="23"/>
+      <c r="M118" s="23"/>
+      <c r="N118" s="23"/>
+      <c r="O118" s="23"/>
+      <c r="P118" s="23"/>
+      <c r="Q118" s="23"/>
     </row>
     <row r="119" spans="1:17">
-      <c r="A119" s="24"/>
-      <c r="B119" s="24"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="24"/>
-      <c r="E119" s="24"/>
-      <c r="F119" s="24"/>
-      <c r="G119" s="24"/>
-      <c r="H119" s="24"/>
-      <c r="I119" s="24"/>
-      <c r="J119" s="24"/>
-      <c r="K119" s="24"/>
-      <c r="L119" s="24"/>
-      <c r="M119" s="24"/>
-      <c r="N119" s="24"/>
-      <c r="O119" s="24"/>
-      <c r="P119" s="24"/>
-      <c r="Q119" s="24"/>
+      <c r="A119" s="23"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="23"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="23"/>
+      <c r="G119" s="23"/>
+      <c r="H119" s="23"/>
+      <c r="I119" s="23"/>
+      <c r="J119" s="23"/>
+      <c r="K119" s="23"/>
+      <c r="L119" s="23"/>
+      <c r="M119" s="23"/>
+      <c r="N119" s="23"/>
+      <c r="O119" s="23"/>
+      <c r="P119" s="23"/>
+      <c r="Q119" s="23"/>
     </row>
     <row r="120" spans="1:17">
-      <c r="A120" s="24"/>
-      <c r="B120" s="24"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="24"/>
-      <c r="E120" s="24"/>
-      <c r="F120" s="24"/>
-      <c r="G120" s="24"/>
-      <c r="H120" s="24"/>
-      <c r="I120" s="24"/>
-      <c r="J120" s="24"/>
-      <c r="K120" s="24"/>
-      <c r="L120" s="24"/>
-      <c r="M120" s="24"/>
-      <c r="N120" s="24"/>
-      <c r="O120" s="24"/>
-      <c r="P120" s="24"/>
-      <c r="Q120" s="24"/>
+      <c r="A120" s="23"/>
+      <c r="B120" s="23"/>
+      <c r="C120" s="23"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="23"/>
+      <c r="F120" s="23"/>
+      <c r="G120" s="23"/>
+      <c r="H120" s="23"/>
+      <c r="I120" s="23"/>
+      <c r="J120" s="23"/>
+      <c r="K120" s="23"/>
+      <c r="L120" s="23"/>
+      <c r="M120" s="23"/>
+      <c r="N120" s="23"/>
+      <c r="O120" s="23"/>
+      <c r="P120" s="23"/>
+      <c r="Q120" s="23"/>
     </row>
     <row r="121" spans="1:17">
-      <c r="A121" s="24"/>
-      <c r="B121" s="24" t="s">
+      <c r="A121" s="23"/>
+      <c r="B121" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C121" s="24" t="s">
+      <c r="C121" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D121" s="24"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="24"/>
-      <c r="G121" s="24"/>
-      <c r="H121" s="24"/>
-      <c r="I121" s="24"/>
-      <c r="J121" s="24"/>
-      <c r="K121" s="24"/>
-      <c r="L121" s="24"/>
-      <c r="M121" s="24"/>
-      <c r="N121" s="24"/>
-      <c r="O121" s="24"/>
-      <c r="P121" s="24"/>
-      <c r="Q121" s="24"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="23"/>
+      <c r="F121" s="23"/>
+      <c r="G121" s="23"/>
+      <c r="H121" s="23"/>
+      <c r="I121" s="23"/>
+      <c r="J121" s="23"/>
+      <c r="K121" s="23"/>
+      <c r="L121" s="23"/>
+      <c r="M121" s="23"/>
+      <c r="N121" s="23"/>
+      <c r="O121" s="23"/>
+      <c r="P121" s="23"/>
+      <c r="Q121" s="23"/>
     </row>
     <row r="122" spans="1:17">
-      <c r="A122" s="24"/>
-      <c r="B122" s="24" t="s">
+      <c r="A122" s="23"/>
+      <c r="B122" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="C122" s="24" t="s">
+      <c r="C122" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D122" s="24"/>
-      <c r="E122" s="24"/>
-      <c r="F122" s="24"/>
-      <c r="G122" s="24"/>
-      <c r="H122" s="24"/>
-      <c r="I122" s="24"/>
-      <c r="J122" s="24"/>
-      <c r="K122" s="24"/>
-      <c r="L122" s="24"/>
-      <c r="M122" s="24"/>
-      <c r="N122" s="24"/>
-      <c r="O122" s="24"/>
-      <c r="P122" s="24"/>
-      <c r="Q122" s="24"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="23"/>
+      <c r="G122" s="23"/>
+      <c r="H122" s="23"/>
+      <c r="I122" s="23"/>
+      <c r="J122" s="23"/>
+      <c r="K122" s="23"/>
+      <c r="L122" s="23"/>
+      <c r="M122" s="23"/>
+      <c r="N122" s="23"/>
+      <c r="O122" s="23"/>
+      <c r="P122" s="23"/>
+      <c r="Q122" s="23"/>
     </row>
     <row r="123" spans="1:17">
-      <c r="A123" s="24"/>
-      <c r="B123" s="24"/>
-      <c r="C123" s="24"/>
-      <c r="D123" s="24"/>
-      <c r="E123" s="24"/>
-      <c r="F123" s="24"/>
-      <c r="G123" s="24"/>
-      <c r="H123" s="24"/>
-      <c r="I123" s="24"/>
-      <c r="J123" s="24"/>
-      <c r="K123" s="24"/>
-      <c r="L123" s="24"/>
-      <c r="M123" s="24"/>
-      <c r="N123" s="24"/>
-      <c r="O123" s="24"/>
-      <c r="P123" s="24"/>
-      <c r="Q123" s="24"/>
+      <c r="A123" s="23"/>
+      <c r="B123" s="23"/>
+      <c r="C123" s="23"/>
+      <c r="D123" s="23"/>
+      <c r="E123" s="23"/>
+      <c r="F123" s="23"/>
+      <c r="G123" s="23"/>
+      <c r="H123" s="23"/>
+      <c r="I123" s="23"/>
+      <c r="J123" s="23"/>
+      <c r="K123" s="23"/>
+      <c r="L123" s="23"/>
+      <c r="M123" s="23"/>
+      <c r="N123" s="23"/>
+      <c r="O123" s="23"/>
+      <c r="P123" s="23"/>
+      <c r="Q123" s="23"/>
     </row>
     <row r="124" spans="1:17">
-      <c r="A124" s="24"/>
-      <c r="B124" s="24"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="24"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="24"/>
-      <c r="G124" s="24"/>
-      <c r="H124" s="24"/>
-      <c r="I124" s="24"/>
-      <c r="J124" s="24"/>
-      <c r="K124" s="24"/>
-      <c r="L124" s="24"/>
-      <c r="M124" s="24"/>
-      <c r="N124" s="24"/>
-      <c r="O124" s="24"/>
-      <c r="P124" s="24"/>
-      <c r="Q124" s="24"/>
+      <c r="A124" s="23"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="23"/>
+      <c r="D124" s="23"/>
+      <c r="E124" s="23"/>
+      <c r="F124" s="23"/>
+      <c r="G124" s="23"/>
+      <c r="H124" s="23"/>
+      <c r="I124" s="23"/>
+      <c r="J124" s="23"/>
+      <c r="K124" s="23"/>
+      <c r="L124" s="23"/>
+      <c r="M124" s="23"/>
+      <c r="N124" s="23"/>
+      <c r="O124" s="23"/>
+      <c r="P124" s="23"/>
+      <c r="Q124" s="23"/>
     </row>
     <row r="125" spans="1:17">
-      <c r="A125" s="24"/>
-      <c r="B125" s="24"/>
-      <c r="C125" s="24" t="s">
+      <c r="A125" s="23"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D125" s="24"/>
-      <c r="E125" s="24"/>
-      <c r="F125" s="24"/>
-      <c r="G125" s="24"/>
-      <c r="H125" s="24"/>
-      <c r="I125" s="24"/>
-      <c r="J125" s="24"/>
-      <c r="K125" s="24"/>
-      <c r="L125" s="24"/>
-      <c r="M125" s="24"/>
-      <c r="N125" s="24"/>
-      <c r="O125" s="24"/>
-      <c r="P125" s="24"/>
-      <c r="Q125" s="24"/>
+      <c r="D125" s="23"/>
+      <c r="E125" s="23"/>
+      <c r="F125" s="23"/>
+      <c r="G125" s="23"/>
+      <c r="H125" s="23"/>
+      <c r="I125" s="23"/>
+      <c r="J125" s="23"/>
+      <c r="K125" s="23"/>
+      <c r="L125" s="23"/>
+      <c r="M125" s="23"/>
+      <c r="N125" s="23"/>
+      <c r="O125" s="23"/>
+      <c r="P125" s="23"/>
+      <c r="Q125" s="23"/>
     </row>
     <row r="126" spans="1:17">
-      <c r="A126" s="24"/>
-      <c r="B126" s="24" t="s">
+      <c r="A126" s="23"/>
+      <c r="B126" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24" t="s">
+      <c r="C126" s="23"/>
+      <c r="D126" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="E126" s="24"/>
-      <c r="F126" s="24"/>
-      <c r="G126" s="24"/>
-      <c r="H126" s="24"/>
-      <c r="I126" s="24"/>
-      <c r="J126" s="24"/>
-      <c r="K126" s="24"/>
-      <c r="L126" s="24"/>
-      <c r="M126" s="24"/>
-      <c r="N126" s="24"/>
-      <c r="O126" s="24"/>
-      <c r="P126" s="24"/>
-      <c r="Q126" s="24"/>
+      <c r="E126" s="23"/>
+      <c r="F126" s="23"/>
+      <c r="G126" s="23"/>
+      <c r="H126" s="23"/>
+      <c r="I126" s="23"/>
+      <c r="J126" s="23"/>
+      <c r="K126" s="23"/>
+      <c r="L126" s="23"/>
+      <c r="M126" s="23"/>
+      <c r="N126" s="23"/>
+      <c r="O126" s="23"/>
+      <c r="P126" s="23"/>
+      <c r="Q126" s="23"/>
     </row>
     <row r="127" spans="1:17">
-      <c r="A127" s="24"/>
-      <c r="B127" s="24"/>
-      <c r="C127" s="24" t="s">
+      <c r="A127" s="23"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D127" s="24"/>
-      <c r="E127" s="24"/>
-      <c r="F127" s="24"/>
-      <c r="G127" s="24"/>
-      <c r="H127" s="24"/>
-      <c r="I127" s="24"/>
-      <c r="J127" s="24"/>
-      <c r="K127" s="24"/>
-      <c r="L127" s="24"/>
-      <c r="M127" s="24"/>
-      <c r="N127" s="24"/>
-      <c r="O127" s="24"/>
-      <c r="P127" s="24"/>
-      <c r="Q127" s="24"/>
+      <c r="D127" s="23"/>
+      <c r="E127" s="23"/>
+      <c r="F127" s="23"/>
+      <c r="G127" s="23"/>
+      <c r="H127" s="23"/>
+      <c r="I127" s="23"/>
+      <c r="J127" s="23"/>
+      <c r="K127" s="23"/>
+      <c r="L127" s="23"/>
+      <c r="M127" s="23"/>
+      <c r="N127" s="23"/>
+      <c r="O127" s="23"/>
+      <c r="P127" s="23"/>
+      <c r="Q127" s="23"/>
     </row>
     <row r="128" spans="1:17">
-      <c r="A128" s="24"/>
-      <c r="B128" s="24" t="s">
+      <c r="A128" s="23"/>
+      <c r="B128" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="C128" s="24"/>
-      <c r="D128" s="24"/>
-      <c r="E128" s="24"/>
-      <c r="F128" s="24"/>
-      <c r="G128" s="24"/>
-      <c r="H128" s="24"/>
-      <c r="I128" s="24"/>
-      <c r="J128" s="24"/>
-      <c r="K128" s="24"/>
-      <c r="L128" s="24"/>
-      <c r="M128" s="24"/>
-      <c r="N128" s="24"/>
-      <c r="O128" s="24"/>
-      <c r="P128" s="24"/>
-      <c r="Q128" s="24"/>
+      <c r="C128" s="23"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="23"/>
+      <c r="F128" s="23"/>
+      <c r="G128" s="23"/>
+      <c r="H128" s="23"/>
+      <c r="I128" s="23"/>
+      <c r="J128" s="23"/>
+      <c r="K128" s="23"/>
+      <c r="L128" s="23"/>
+      <c r="M128" s="23"/>
+      <c r="N128" s="23"/>
+      <c r="O128" s="23"/>
+      <c r="P128" s="23"/>
+      <c r="Q128" s="23"/>
     </row>
     <row r="129" spans="1:20">
-      <c r="A129" s="24"/>
-      <c r="B129" s="24"/>
-      <c r="C129" s="24" t="s">
+      <c r="A129" s="23"/>
+      <c r="B129" s="23"/>
+      <c r="C129" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D129" s="24"/>
-      <c r="E129" s="24"/>
-      <c r="F129" s="24"/>
-      <c r="G129" s="24"/>
-      <c r="H129" s="24"/>
-      <c r="I129" s="24"/>
-      <c r="J129" s="24"/>
-      <c r="K129" s="24"/>
-      <c r="L129" s="24"/>
-      <c r="M129" s="24"/>
-      <c r="N129" s="24"/>
-      <c r="O129" s="24"/>
-      <c r="P129" s="24"/>
-      <c r="Q129" s="24"/>
+      <c r="D129" s="23"/>
+      <c r="E129" s="23"/>
+      <c r="F129" s="23"/>
+      <c r="G129" s="23"/>
+      <c r="H129" s="23"/>
+      <c r="I129" s="23"/>
+      <c r="J129" s="23"/>
+      <c r="K129" s="23"/>
+      <c r="L129" s="23"/>
+      <c r="M129" s="23"/>
+      <c r="N129" s="23"/>
+      <c r="O129" s="23"/>
+      <c r="P129" s="23"/>
+      <c r="Q129" s="23"/>
     </row>
     <row r="130" spans="1:20">
-      <c r="A130" s="24"/>
-      <c r="B130" s="24"/>
-      <c r="C130" s="24" t="s">
+      <c r="A130" s="23"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="D130" s="24"/>
-      <c r="E130" s="24"/>
-      <c r="F130" s="24"/>
-      <c r="G130" s="24"/>
-      <c r="H130" s="24"/>
-      <c r="I130" s="24"/>
-      <c r="J130" s="24"/>
-      <c r="K130" s="24"/>
-      <c r="L130" s="24"/>
-      <c r="M130" s="24"/>
-      <c r="N130" s="24"/>
-      <c r="O130" s="24"/>
-      <c r="P130" s="24"/>
-      <c r="Q130" s="24"/>
+      <c r="D130" s="23"/>
+      <c r="E130" s="23"/>
+      <c r="F130" s="23"/>
+      <c r="G130" s="23"/>
+      <c r="H130" s="23"/>
+      <c r="I130" s="23"/>
+      <c r="J130" s="23"/>
+      <c r="K130" s="23"/>
+      <c r="L130" s="23"/>
+      <c r="M130" s="23"/>
+      <c r="N130" s="23"/>
+      <c r="O130" s="23"/>
+      <c r="P130" s="23"/>
+      <c r="Q130" s="23"/>
     </row>
     <row r="131" spans="1:20">
-      <c r="A131" s="24"/>
-      <c r="B131" s="24"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="24"/>
-      <c r="E131" s="24"/>
-      <c r="F131" s="24"/>
-      <c r="G131" s="24"/>
-      <c r="H131" s="24"/>
-      <c r="I131" s="24"/>
-      <c r="J131" s="24"/>
-      <c r="K131" s="24"/>
-      <c r="L131" s="24"/>
-      <c r="M131" s="24"/>
-      <c r="N131" s="24"/>
-      <c r="O131" s="24"/>
-      <c r="P131" s="24"/>
-      <c r="Q131" s="24"/>
+      <c r="A131" s="23"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="23"/>
+      <c r="D131" s="23"/>
+      <c r="E131" s="23"/>
+      <c r="F131" s="23"/>
+      <c r="G131" s="23"/>
+      <c r="H131" s="23"/>
+      <c r="I131" s="23"/>
+      <c r="J131" s="23"/>
+      <c r="K131" s="23"/>
+      <c r="L131" s="23"/>
+      <c r="M131" s="23"/>
+      <c r="N131" s="23"/>
+      <c r="O131" s="23"/>
+      <c r="P131" s="23"/>
+      <c r="Q131" s="23"/>
     </row>
     <row r="132" spans="1:20">
-      <c r="A132" s="24"/>
-      <c r="B132" s="24" t="s">
+      <c r="A132" s="23"/>
+      <c r="B132" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C132" s="24"/>
-      <c r="D132" s="24"/>
-      <c r="E132" s="24"/>
-      <c r="F132" s="24"/>
-      <c r="G132" s="24"/>
-      <c r="H132" s="24"/>
-      <c r="I132" s="24"/>
-      <c r="J132" s="24"/>
-      <c r="K132" s="24"/>
-      <c r="L132" s="24"/>
-      <c r="M132" s="24"/>
-      <c r="N132" s="24"/>
-      <c r="O132" s="24"/>
-      <c r="P132" s="24"/>
-      <c r="Q132" s="24"/>
+      <c r="C132" s="23"/>
+      <c r="D132" s="23"/>
+      <c r="E132" s="23"/>
+      <c r="F132" s="23"/>
+      <c r="G132" s="23"/>
+      <c r="H132" s="23"/>
+      <c r="I132" s="23"/>
+      <c r="J132" s="23"/>
+      <c r="K132" s="23"/>
+      <c r="L132" s="23"/>
+      <c r="M132" s="23"/>
+      <c r="N132" s="23"/>
+      <c r="O132" s="23"/>
+      <c r="P132" s="23"/>
+      <c r="Q132" s="23"/>
     </row>
     <row r="133" spans="1:20">
-      <c r="A133" s="24"/>
-      <c r="B133" s="24"/>
-      <c r="C133" s="24" t="s">
+      <c r="A133" s="23"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D133" s="24"/>
-      <c r="E133" s="24"/>
-      <c r="F133" s="24"/>
-      <c r="G133" s="24"/>
-      <c r="H133" s="24"/>
-      <c r="I133" s="24"/>
-      <c r="J133" s="24"/>
-      <c r="K133" s="24"/>
-      <c r="L133" s="24"/>
-      <c r="M133" s="24"/>
-      <c r="N133" s="24"/>
-      <c r="O133" s="24"/>
-      <c r="P133" s="24"/>
-      <c r="Q133" s="24"/>
+      <c r="D133" s="23"/>
+      <c r="E133" s="23"/>
+      <c r="F133" s="23"/>
+      <c r="G133" s="23"/>
+      <c r="H133" s="23"/>
+      <c r="I133" s="23"/>
+      <c r="J133" s="23"/>
+      <c r="K133" s="23"/>
+      <c r="L133" s="23"/>
+      <c r="M133" s="23"/>
+      <c r="N133" s="23"/>
+      <c r="O133" s="23"/>
+      <c r="P133" s="23"/>
+      <c r="Q133" s="23"/>
     </row>
     <row r="134" spans="1:20">
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="T134" s="26" t="s">
+      <c r="T134" s="25" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="33.6">
-      <c r="B139" s="28" t="s">
+    <row r="139" spans="1:20">
+      <c r="B139" s="12" t="s">
         <v>130</v>
       </c>
     </row>
+    <row r="160" spans="4:4">
+      <c r="D160" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="2:13" ht="21.6" customHeight="1">
+      <c r="B161" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="162" spans="2:13" ht="21.6" customHeight="1">
+      <c r="D162" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="163" spans="2:13" ht="21.6" customHeight="1">
+      <c r="D163" s="11"/>
+    </row>
+    <row r="164" spans="2:13" ht="21.6" customHeight="1">
+      <c r="B164" s="51"/>
+      <c r="C164" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="D164" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="E164" s="51"/>
+      <c r="F164" s="51"/>
+      <c r="G164" s="51"/>
+      <c r="H164" s="51"/>
+      <c r="I164" s="51"/>
+      <c r="J164" s="51"/>
+      <c r="K164" s="51"/>
+      <c r="L164" s="51"/>
+      <c r="M164" s="51"/>
+    </row>
+    <row r="165" spans="2:13">
+      <c r="B165" s="49"/>
+      <c r="C165" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="D165" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="E165" s="49"/>
+      <c r="F165" s="49"/>
+      <c r="G165" s="49"/>
+      <c r="H165" s="49"/>
+      <c r="I165" s="49"/>
+      <c r="J165" s="49"/>
+      <c r="K165" s="49"/>
+      <c r="L165" s="49"/>
+      <c r="M165" s="49"/>
+    </row>
+    <row r="166" spans="2:13">
+      <c r="B166" s="49"/>
+      <c r="C166" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="D166" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="E166" s="49"/>
+      <c r="F166" s="49"/>
+      <c r="G166" s="49"/>
+      <c r="H166" s="49"/>
+      <c r="I166" s="49"/>
+      <c r="J166" s="49"/>
+      <c r="K166" s="49"/>
+      <c r="L166" s="49"/>
+      <c r="M166" s="49"/>
+    </row>
+    <row r="167" spans="2:13">
+      <c r="B167" s="49"/>
+      <c r="C167" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="D167" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="E167" s="49"/>
+      <c r="F167" s="49"/>
+      <c r="G167" s="49"/>
+      <c r="H167" s="49"/>
+      <c r="I167" s="49"/>
+      <c r="J167" s="49"/>
+      <c r="K167" s="49"/>
+      <c r="L167" s="49"/>
+      <c r="M167" s="49"/>
+    </row>
+    <row r="168" spans="2:13">
+      <c r="B168" s="49"/>
+      <c r="C168" s="50"/>
+      <c r="D168" s="49"/>
+      <c r="E168" s="49"/>
+      <c r="F168" s="49"/>
+      <c r="G168" s="49"/>
+      <c r="H168" s="49"/>
+      <c r="I168" s="49"/>
+      <c r="J168" s="49"/>
+      <c r="K168" s="49"/>
+      <c r="L168" s="49"/>
+      <c r="M168" s="49"/>
+    </row>
+    <row r="169" spans="2:13">
+      <c r="B169" s="49"/>
+      <c r="C169" s="49"/>
+      <c r="D169" s="49"/>
+      <c r="E169" s="49"/>
+      <c r="F169" s="49"/>
+      <c r="G169" s="49"/>
+      <c r="H169" s="49"/>
+      <c r="I169" s="49"/>
+      <c r="J169" s="49"/>
+      <c r="K169" s="49"/>
+      <c r="L169" s="49"/>
+      <c r="M169" s="49"/>
+    </row>
+    <row r="170" spans="2:13">
+      <c r="B170" s="49"/>
+      <c r="C170" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="D170" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="E170" s="49"/>
+      <c r="F170" s="49"/>
+      <c r="G170" s="49"/>
+      <c r="H170" s="49"/>
+      <c r="I170" s="49"/>
+      <c r="J170" s="49"/>
+      <c r="K170" s="49"/>
+      <c r="L170" s="49"/>
+      <c r="M170" s="49"/>
+    </row>
+    <row r="171" spans="2:13">
+      <c r="B171" s="49"/>
+      <c r="C171" s="49"/>
+      <c r="D171" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="E171" s="49"/>
+      <c r="F171" s="49"/>
+      <c r="G171" s="49"/>
+      <c r="H171" s="49"/>
+      <c r="I171" s="49"/>
+      <c r="J171" s="49"/>
+      <c r="K171" s="49"/>
+      <c r="L171" s="49"/>
+      <c r="M171" s="49"/>
+    </row>
+    <row r="172" spans="2:13">
+      <c r="B172" s="49"/>
+      <c r="C172" s="49"/>
+      <c r="D172" s="49"/>
+      <c r="E172" s="49"/>
+      <c r="F172" s="49"/>
+      <c r="G172" s="49"/>
+      <c r="H172" s="49"/>
+      <c r="I172" s="49"/>
+      <c r="J172" s="49"/>
+      <c r="K172" s="49"/>
+      <c r="L172" s="49"/>
+      <c r="M172" s="49"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C167:C168"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1"/>
+    <hyperlink ref="D161" r:id="rId2" location="slide=id.p22" display="https://docs.google.com/presentation/d/12i4myOgbukiXtX185Kir1qE2SXIpcrd6uik4wJL_KjU/edit - slide=id.p22"/>
+    <hyperlink ref="D162" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId4"/>
+    <hyperlink ref="D160" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
+  <legacyDrawing r:id="rId8"/>
   <oleObjects>
-    <oleObject progId="Word.Document.12" shapeId="1026" r:id="rId5"/>
+    <oleObject progId="Word.Document.12" shapeId="1026" r:id="rId9"/>
   </oleObjects>
 </worksheet>
 </file>
@@ -3734,7 +4055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B6:X131"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C141" sqref="C141:I144"/>
     </sheetView>
   </sheetViews>
@@ -3744,55 +4065,55 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:15" s="3" customFormat="1">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39" t="s">
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40" t="s">
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="2:15" ht="25.8" customHeight="1">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="41" t="s">
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="43"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="40"/>
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="2:15" ht="25.8" customHeight="1">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="46"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="43"/>
     </row>
     <row r="9" spans="2:15">
       <c r="N9" s="4"/>
@@ -3888,7 +4209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
@@ -3904,7 +4225,7 @@
   <dimension ref="A5:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3990,7 +4311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:Y30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -4037,7 +4358,7 @@
       <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="47" t="s">
+      <c r="N9" s="44" t="s">
         <v>62</v>
       </c>
       <c r="O9" s="13" t="s">
@@ -4064,7 +4385,7 @@
       <c r="D10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="48"/>
+      <c r="N10" s="45"/>
       <c r="O10" s="16" t="s">
         <v>50</v>
       </c>
@@ -4091,7 +4412,7 @@
       <c r="D11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="48"/>
+      <c r="N11" s="45"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
@@ -4117,7 +4438,7 @@
       <c r="G12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N12" s="48"/>
+      <c r="N12" s="45"/>
       <c r="O12" s="19" t="s">
         <v>51</v>
       </c>
@@ -4144,7 +4465,7 @@
       <c r="D13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N13" s="48"/>
+      <c r="N13" s="45"/>
       <c r="O13" s="16" t="s">
         <v>50</v>
       </c>
@@ -4171,7 +4492,7 @@
       <c r="D14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N14" s="49"/>
+      <c r="N14" s="46"/>
       <c r="O14" s="20" t="s">
         <v>58</v>
       </c>
@@ -4295,7 +4616,7 @@
       </c>
     </row>
     <row r="13" spans="4:4" ht="409.6">
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="27" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4309,7 +4630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -4326,7 +4647,7 @@
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="28" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4336,64 +4657,64 @@
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="26" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="26" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="29"/>
+      <c r="B12" s="26"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="29"/>
+      <c r="B13" s="26"/>
     </row>
     <row r="14" spans="2:2" ht="33" thickBot="1">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="31" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="2:2" s="36" customFormat="1">
-      <c r="B15" s="29" t="s">
+    <row r="15" spans="2:2" s="33" customFormat="1">
+      <c r="B15" s="26" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="2:2" s="36" customFormat="1">
-      <c r="B16" s="29" t="s">
+    <row r="16" spans="2:2" s="33" customFormat="1">
+      <c r="B16" s="26" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15.6">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="32" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="15.6">
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="32" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="29"/>
+      <c r="B19" s="26"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="26" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="26" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="29"/>
+      <c r="B23" s="26"/>
     </row>
     <row r="24" spans="2:2" ht="24.6">
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="29" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4403,32 +4724,32 @@
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="26" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="24.6">
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="29" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="26" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="26" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="23.4">
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="30" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="26" t="s">
         <v>146</v>
       </c>
     </row>

--- a/Web, Docker, Git/Docker_Git,sendgrid.xlsx
+++ b/Web, Docker, Git/Docker_Git,sendgrid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="187">
   <si>
     <t>IMAGE</t>
   </si>
@@ -550,18 +550,81 @@
   <si>
     <t>assynchronous to git-master in server</t>
   </si>
+  <si>
+    <t>https://www.atlassian.com/git/tutorials/syncing/git-pull</t>
+  </si>
+  <si>
+    <t>explainations</t>
+  </si>
+  <si>
+    <t>Note that this solution works if the commit to be removed is the last committed one.</t>
+  </si>
+  <si>
+    <t>1 - Copy the commit reference you like to go back to from the log:</t>
+  </si>
+  <si>
+    <t>2 - Reset git to the commit reference:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> git reset &lt;commit_ref&gt;</t>
+  </si>
+  <si>
+    <t>3 - Stash/store the local changes from the wrong commit to use later after pushing to remote:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> git stash</t>
+  </si>
+  <si>
+    <t>4 - Push the changes to remote repository, (-f or --force):</t>
+  </si>
+  <si>
+    <t>git push -f</t>
+  </si>
+  <si>
+    <t>5 - Get back the stored changes to local repository:</t>
+  </si>
+  <si>
+    <t>git stash apply</t>
+  </si>
+  <si>
+    <t>7 - In case you have untracked/new files in the changes, you need to add them to git before committing:</t>
+  </si>
+  <si>
+    <t>git add .</t>
+  </si>
+  <si>
+    <t>6 - Add whatever extra changes you need, then commit the needed files, (or use a dot '.' instead of stating each file name, to commit all files in the local repository:</t>
+  </si>
+  <si>
+    <t>git commit -m "&lt;new_commit_message&gt;" &lt;file1&gt; &lt;file2&gt; ...</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>git commit -m "&lt;new_commit_message&gt;" .</t>
+  </si>
+  <si>
+    <t>REMOVE LAST COMMIT THEN UPDATE!!!</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -748,8 +811,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -786,6 +856,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -970,119 +1046,129 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="6" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
+    <cellStyle name="20% - Accent4" xfId="6" builtinId="42"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1293,8 +1379,8 @@
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
       <xdr:row>155</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -1340,8 +1426,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>290834</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>39374</xdr:colOff>
       <xdr:row>195</xdr:row>
       <xdr:rowOff>97971</xdr:rowOff>
     </xdr:to>
@@ -1380,8 +1466,8 @@
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
       <xdr:row>215</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2284,17 +2370,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U172"/>
+  <dimension ref="A1:U254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C165" sqref="C165"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="C218" sqref="C218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="47"/>
-    <col min="3" max="3" width="51.77734375" style="47" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="47"/>
+    <col min="1" max="2" width="8.88671875" style="34"/>
+    <col min="3" max="3" width="73.21875" style="34" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
@@ -2308,7 +2394,7 @@
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="48"/>
+      <c r="C6" s="35"/>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="23"/>
@@ -3849,7 +3935,7 @@
       <c r="Q133" s="23"/>
     </row>
     <row r="134" spans="1:20">
-      <c r="C134" s="47" t="s">
+      <c r="C134" s="34" t="s">
         <v>126</v>
       </c>
       <c r="T134" s="25" t="s">
@@ -3861,13 +3947,21 @@
         <v>130</v>
       </c>
     </row>
-    <row r="160" spans="4:4">
+    <row r="158" spans="3:4">
+      <c r="C158" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="160" spans="3:4">
       <c r="D160" s="11" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="161" spans="2:13" ht="21.6" customHeight="1">
-      <c r="B161" s="47" t="s">
+      <c r="B161" s="34" t="s">
         <v>155</v>
       </c>
       <c r="D161" s="11" t="s">
@@ -3883,152 +3977,299 @@
       <c r="D163" s="11"/>
     </row>
     <row r="164" spans="2:13" ht="21.6" customHeight="1">
-      <c r="B164" s="51"/>
-      <c r="C164" s="51" t="s">
+      <c r="B164" s="37"/>
+      <c r="C164" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="D164" s="52" t="s">
+      <c r="D164" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="E164" s="51"/>
-      <c r="F164" s="51"/>
-      <c r="G164" s="51"/>
-      <c r="H164" s="51"/>
-      <c r="I164" s="51"/>
-      <c r="J164" s="51"/>
-      <c r="K164" s="51"/>
-      <c r="L164" s="51"/>
-      <c r="M164" s="51"/>
+      <c r="E164" s="37"/>
+      <c r="F164" s="37"/>
+      <c r="G164" s="37"/>
+      <c r="H164" s="37"/>
+      <c r="I164" s="37"/>
+      <c r="J164" s="37"/>
+      <c r="K164" s="37"/>
+      <c r="L164" s="37"/>
+      <c r="M164" s="37"/>
     </row>
     <row r="165" spans="2:13">
-      <c r="B165" s="49"/>
-      <c r="C165" s="49" t="s">
+      <c r="B165" s="36"/>
+      <c r="C165" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="D165" s="49" t="s">
+      <c r="D165" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="E165" s="49"/>
-      <c r="F165" s="49"/>
-      <c r="G165" s="49"/>
-      <c r="H165" s="49"/>
-      <c r="I165" s="49"/>
-      <c r="J165" s="49"/>
-      <c r="K165" s="49"/>
-      <c r="L165" s="49"/>
-      <c r="M165" s="49"/>
+      <c r="E165" s="36"/>
+      <c r="F165" s="36"/>
+      <c r="G165" s="36"/>
+      <c r="H165" s="36"/>
+      <c r="I165" s="36"/>
+      <c r="J165" s="36"/>
+      <c r="K165" s="36"/>
+      <c r="L165" s="36"/>
+      <c r="M165" s="36"/>
     </row>
     <row r="166" spans="2:13">
-      <c r="B166" s="49"/>
-      <c r="C166" s="49" t="s">
+      <c r="B166" s="36"/>
+      <c r="C166" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="D166" s="49" t="s">
+      <c r="D166" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E166" s="49"/>
-      <c r="F166" s="49"/>
-      <c r="G166" s="49"/>
-      <c r="H166" s="49"/>
-      <c r="I166" s="49"/>
-      <c r="J166" s="49"/>
-      <c r="K166" s="49"/>
-      <c r="L166" s="49"/>
-      <c r="M166" s="49"/>
+      <c r="E166" s="36"/>
+      <c r="F166" s="36"/>
+      <c r="G166" s="36"/>
+      <c r="H166" s="36"/>
+      <c r="I166" s="36"/>
+      <c r="J166" s="36"/>
+      <c r="K166" s="36"/>
+      <c r="L166" s="36"/>
+      <c r="M166" s="36"/>
     </row>
     <row r="167" spans="2:13">
-      <c r="B167" s="49"/>
-      <c r="C167" s="50" t="s">
+      <c r="B167" s="36"/>
+      <c r="C167" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="D167" s="49" t="s">
+      <c r="D167" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="E167" s="49"/>
-      <c r="F167" s="49"/>
-      <c r="G167" s="49"/>
-      <c r="H167" s="49"/>
-      <c r="I167" s="49"/>
-      <c r="J167" s="49"/>
-      <c r="K167" s="49"/>
-      <c r="L167" s="49"/>
-      <c r="M167" s="49"/>
+      <c r="E167" s="36"/>
+      <c r="F167" s="36"/>
+      <c r="G167" s="36"/>
+      <c r="H167" s="36"/>
+      <c r="I167" s="36"/>
+      <c r="J167" s="36"/>
+      <c r="K167" s="36"/>
+      <c r="L167" s="36"/>
+      <c r="M167" s="36"/>
     </row>
     <row r="168" spans="2:13">
-      <c r="B168" s="49"/>
-      <c r="C168" s="50"/>
-      <c r="D168" s="49"/>
-      <c r="E168" s="49"/>
-      <c r="F168" s="49"/>
-      <c r="G168" s="49"/>
-      <c r="H168" s="49"/>
-      <c r="I168" s="49"/>
-      <c r="J168" s="49"/>
-      <c r="K168" s="49"/>
-      <c r="L168" s="49"/>
-      <c r="M168" s="49"/>
+      <c r="B168" s="36"/>
+      <c r="C168" s="39"/>
+      <c r="D168" s="36"/>
+      <c r="E168" s="36"/>
+      <c r="F168" s="36"/>
+      <c r="G168" s="36"/>
+      <c r="H168" s="36"/>
+      <c r="I168" s="36"/>
+      <c r="J168" s="36"/>
+      <c r="K168" s="36"/>
+      <c r="L168" s="36"/>
+      <c r="M168" s="36"/>
     </row>
     <row r="169" spans="2:13">
-      <c r="B169" s="49"/>
-      <c r="C169" s="49"/>
-      <c r="D169" s="49"/>
-      <c r="E169" s="49"/>
-      <c r="F169" s="49"/>
-      <c r="G169" s="49"/>
-      <c r="H169" s="49"/>
-      <c r="I169" s="49"/>
-      <c r="J169" s="49"/>
-      <c r="K169" s="49"/>
-      <c r="L169" s="49"/>
-      <c r="M169" s="49"/>
+      <c r="B169" s="36"/>
+      <c r="C169" s="36"/>
+      <c r="D169" s="36"/>
+      <c r="E169" s="36"/>
+      <c r="F169" s="36"/>
+      <c r="G169" s="36"/>
+      <c r="H169" s="36"/>
+      <c r="I169" s="36"/>
+      <c r="J169" s="36"/>
+      <c r="K169" s="36"/>
+      <c r="L169" s="36"/>
+      <c r="M169" s="36"/>
     </row>
     <row r="170" spans="2:13">
-      <c r="B170" s="49"/>
-      <c r="C170" s="49" t="s">
+      <c r="B170" s="36"/>
+      <c r="C170" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="D170" s="49" t="s">
+      <c r="D170" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="E170" s="49"/>
-      <c r="F170" s="49"/>
-      <c r="G170" s="49"/>
-      <c r="H170" s="49"/>
-      <c r="I170" s="49"/>
-      <c r="J170" s="49"/>
-      <c r="K170" s="49"/>
-      <c r="L170" s="49"/>
-      <c r="M170" s="49"/>
+      <c r="E170" s="36"/>
+      <c r="F170" s="36"/>
+      <c r="G170" s="36"/>
+      <c r="H170" s="36"/>
+      <c r="I170" s="36"/>
+      <c r="J170" s="36"/>
+      <c r="K170" s="36"/>
+      <c r="L170" s="36"/>
+      <c r="M170" s="36"/>
     </row>
     <row r="171" spans="2:13">
-      <c r="B171" s="49"/>
-      <c r="C171" s="49"/>
-      <c r="D171" s="49" t="s">
+      <c r="B171" s="36"/>
+      <c r="C171" s="36"/>
+      <c r="D171" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="E171" s="49"/>
-      <c r="F171" s="49"/>
-      <c r="G171" s="49"/>
-      <c r="H171" s="49"/>
-      <c r="I171" s="49"/>
-      <c r="J171" s="49"/>
-      <c r="K171" s="49"/>
-      <c r="L171" s="49"/>
-      <c r="M171" s="49"/>
+      <c r="E171" s="36"/>
+      <c r="F171" s="36"/>
+      <c r="G171" s="36"/>
+      <c r="H171" s="36"/>
+      <c r="I171" s="36"/>
+      <c r="J171" s="36"/>
+      <c r="K171" s="36"/>
+      <c r="L171" s="36"/>
+      <c r="M171" s="36"/>
     </row>
     <row r="172" spans="2:13">
-      <c r="B172" s="49"/>
-      <c r="C172" s="49"/>
-      <c r="D172" s="49"/>
-      <c r="E172" s="49"/>
-      <c r="F172" s="49"/>
-      <c r="G172" s="49"/>
-      <c r="H172" s="49"/>
-      <c r="I172" s="49"/>
-      <c r="J172" s="49"/>
-      <c r="K172" s="49"/>
-      <c r="L172" s="49"/>
-      <c r="M172" s="49"/>
+      <c r="B172" s="36"/>
+      <c r="C172" s="36"/>
+      <c r="D172" s="36"/>
+      <c r="E172" s="36"/>
+      <c r="F172" s="36"/>
+      <c r="G172" s="36"/>
+      <c r="H172" s="36"/>
+      <c r="I172" s="36"/>
+      <c r="J172" s="36"/>
+      <c r="K172" s="36"/>
+      <c r="L172" s="36"/>
+      <c r="M172" s="36"/>
+    </row>
+    <row r="218" spans="3:3">
+      <c r="C218" s="56" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="219" spans="3:3">
+      <c r="C219" s="53"/>
+    </row>
+    <row r="220" spans="3:3" ht="35.4">
+      <c r="C220" s="54" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3">
+      <c r="C221" s="53"/>
+    </row>
+    <row r="222" spans="3:3">
+      <c r="C222" s="53"/>
+    </row>
+    <row r="223" spans="3:3">
+      <c r="C223" s="53"/>
+    </row>
+    <row r="224" spans="3:3" ht="35.4">
+      <c r="C224" s="54" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3">
+      <c r="C225" s="53"/>
+    </row>
+    <row r="226" spans="3:3">
+      <c r="C226" s="55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3">
+      <c r="C227" s="53"/>
+    </row>
+    <row r="228" spans="3:3">
+      <c r="C228" s="54" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3">
+      <c r="C229" s="53"/>
+    </row>
+    <row r="230" spans="3:3">
+      <c r="C230" s="55" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="231" spans="3:3">
+      <c r="C231" s="53"/>
+    </row>
+    <row r="232" spans="3:3" ht="35.4">
+      <c r="C232" s="54" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3">
+      <c r="C233" s="53"/>
+    </row>
+    <row r="234" spans="3:3">
+      <c r="C234" s="55" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="235" spans="3:3">
+      <c r="C235" s="53"/>
+    </row>
+    <row r="236" spans="3:3">
+      <c r="C236" s="54" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="237" spans="3:3">
+      <c r="C237" s="53"/>
+    </row>
+    <row r="238" spans="3:3">
+      <c r="C238" s="55" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="239" spans="3:3">
+      <c r="C239" s="53"/>
+    </row>
+    <row r="240" spans="3:3">
+      <c r="C240" s="54" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3">
+      <c r="C241" s="53"/>
+    </row>
+    <row r="242" spans="3:3">
+      <c r="C242" s="55" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3">
+      <c r="C243" s="53"/>
+    </row>
+    <row r="244" spans="3:3" ht="35.4">
+      <c r="C244" s="54" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="245" spans="3:3">
+      <c r="C245" s="53"/>
+    </row>
+    <row r="246" spans="3:3">
+      <c r="C246" s="55" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="247" spans="3:3">
+      <c r="C247" s="53"/>
+    </row>
+    <row r="248" spans="3:3" ht="52.8">
+      <c r="C248" s="54" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="249" spans="3:3">
+      <c r="C249" s="53"/>
+    </row>
+    <row r="250" spans="3:3">
+      <c r="C250" s="55" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="251" spans="3:3">
+      <c r="C251" s="53"/>
+    </row>
+    <row r="252" spans="3:3">
+      <c r="C252" s="54" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="253" spans="3:3">
+      <c r="C253" s="53"/>
+    </row>
+    <row r="254" spans="3:3">
+      <c r="C254" s="55" t="s">
+        <v>185</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4040,13 +4281,14 @@
     <hyperlink ref="D162" r:id="rId3"/>
     <hyperlink ref="C2" r:id="rId4"/>
     <hyperlink ref="D160" r:id="rId5"/>
+    <hyperlink ref="D158" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
-  <drawing r:id="rId7"/>
-  <legacyDrawing r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+  <drawing r:id="rId8"/>
+  <legacyDrawing r:id="rId9"/>
   <oleObjects>
-    <oleObject progId="Word.Document.12" shapeId="1026" r:id="rId9"/>
+    <oleObject progId="Word.Document.12" shapeId="1026" r:id="rId10"/>
   </oleObjects>
 </worksheet>
 </file>
@@ -4065,55 +4307,55 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:15" s="3" customFormat="1">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36" t="s">
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37" t="s">
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="2:15" ht="25.8" customHeight="1">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34" t="s">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="38" t="s">
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="40"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="46"/>
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="2:15" ht="25.8" customHeight="1">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34" t="s">
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="49"/>
     </row>
     <row r="9" spans="2:15">
       <c r="N9" s="4"/>
@@ -4358,7 +4600,7 @@
       <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="44" t="s">
+      <c r="N9" s="50" t="s">
         <v>62</v>
       </c>
       <c r="O9" s="13" t="s">
@@ -4385,7 +4627,7 @@
       <c r="D10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="45"/>
+      <c r="N10" s="51"/>
       <c r="O10" s="16" t="s">
         <v>50</v>
       </c>
@@ -4412,7 +4654,7 @@
       <c r="D11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="45"/>
+      <c r="N11" s="51"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
@@ -4438,7 +4680,7 @@
       <c r="G12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N12" s="45"/>
+      <c r="N12" s="51"/>
       <c r="O12" s="19" t="s">
         <v>51</v>
       </c>
@@ -4465,7 +4707,7 @@
       <c r="D13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N13" s="45"/>
+      <c r="N13" s="51"/>
       <c r="O13" s="16" t="s">
         <v>50</v>
       </c>
@@ -4492,7 +4734,7 @@
       <c r="D14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N14" s="46"/>
+      <c r="N14" s="52"/>
       <c r="O14" s="20" t="s">
         <v>58</v>
       </c>

--- a/Web, Docker, Git/Docker_Git,sendgrid.xlsx
+++ b/Web, Docker, Git/Docker_Git,sendgrid.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GIT_HUB" sheetId="1" r:id="rId1"/>
-    <sheet name="Docker_concept" sheetId="2" r:id="rId2"/>
-    <sheet name="herorku " sheetId="3" r:id="rId3"/>
-    <sheet name="Docker-for django" sheetId="4" r:id="rId4"/>
-    <sheet name="docker_basic_build" sheetId="5" r:id="rId5"/>
-    <sheet name="tutorial" sheetId="6" r:id="rId6"/>
-    <sheet name="sendgrid" sheetId="7" r:id="rId7"/>
+    <sheet name="Git_advance" sheetId="8" r:id="rId2"/>
+    <sheet name="Docker_concept" sheetId="2" r:id="rId3"/>
+    <sheet name="herorku " sheetId="3" r:id="rId4"/>
+    <sheet name="Docker-for django" sheetId="4" r:id="rId5"/>
+    <sheet name="docker_basic_build" sheetId="5" r:id="rId6"/>
+    <sheet name="tutorial" sheetId="6" r:id="rId7"/>
+    <sheet name="sendgrid" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="201">
   <si>
     <t>IMAGE</t>
   </si>
@@ -607,12 +608,107 @@
   <si>
     <t>REMOVE LAST COMMIT THEN UPDATE!!!</t>
   </si>
+  <si>
+    <t xml:space="preserve">GIT revert </t>
+  </si>
+  <si>
+    <t>1. checkout the remote branch to local repo.</t>
+  </si>
+  <si>
+    <t>git checkout development</t>
+  </si>
+  <si>
+    <t>output:</t>
+  </si>
+  <si>
+    <t>commit 7cd42475d6f95f5896b6f02e902efab0b70e8038 "Merge branch 'wrong-commit' into 'development'"</t>
+  </si>
+  <si>
+    <t>commit f9a734f8f44b0b37ccea769b9a2fd774c0f0c012 "this is a wrong commit"</t>
+  </si>
+  <si>
+    <t>commit 3779ab50e72908da92d2cfcd72256d7a09f446ba "this is the correct commit"</t>
+  </si>
+  <si>
+    <t>3. reset the branch to the commit hash copied in the previous step</t>
+  </si>
+  <si>
+    <t>git reset &lt;commit-hash&gt; (i.e. 3779ab50e72908da92d2cfcd72256d7a09f446ba)</t>
+  </si>
+  <si>
+    <t>6. force-push your local branch to remote and notice that your commit history is clean as it was before it got polluted.</t>
+  </si>
+  <si>
+    <t>git push -f origin development</t>
+  </si>
+  <si>
+    <r>
+      <t>2. copy the commit hash (i.e. id of the commit immediately before the wrong commit) from git log </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF242729"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git log -n5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4. run the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> to show all the changes that were part of the wrong commit.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5. simply run </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git reset --hard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> to revert all those changes.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="29">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -818,8 +914,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF242729"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF242729"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -862,6 +975,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1058,7 +1177,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1116,8 +1235,40 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1158,14 +1309,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="6" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent4" xfId="6" builtinId="42"/>
@@ -2372,15 +2515,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="C218" sqref="C218"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="34"/>
-    <col min="3" max="3" width="73.21875" style="34" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="34"/>
+    <col min="1" max="2" width="8.85546875" style="34"/>
+    <col min="3" max="3" width="73.28515625" style="34" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
@@ -4032,7 +4175,7 @@
     </row>
     <row r="167" spans="2:13">
       <c r="B167" s="36"/>
-      <c r="C167" s="39" t="s">
+      <c r="C167" s="50" t="s">
         <v>161</v>
       </c>
       <c r="D167" s="36" t="s">
@@ -4050,7 +4193,7 @@
     </row>
     <row r="168" spans="2:13">
       <c r="B168" s="36"/>
-      <c r="C168" s="39"/>
+      <c r="C168" s="50"/>
       <c r="D168" s="36"/>
       <c r="E168" s="36"/>
       <c r="F168" s="36"/>
@@ -4125,149 +4268,149 @@
       <c r="M172" s="36"/>
     </row>
     <row r="218" spans="3:3">
-      <c r="C218" s="56" t="s">
+      <c r="C218" s="42" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="219" spans="3:3">
-      <c r="C219" s="53"/>
-    </row>
-    <row r="220" spans="3:3" ht="35.4">
-      <c r="C220" s="54" t="s">
+      <c r="C219" s="39"/>
+    </row>
+    <row r="220" spans="3:3" ht="36.75">
+      <c r="C220" s="40" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="221" spans="3:3">
-      <c r="C221" s="53"/>
+      <c r="C221" s="39"/>
     </row>
     <row r="222" spans="3:3">
-      <c r="C222" s="53"/>
+      <c r="C222" s="39"/>
     </row>
     <row r="223" spans="3:3">
-      <c r="C223" s="53"/>
-    </row>
-    <row r="224" spans="3:3" ht="35.4">
-      <c r="C224" s="54" t="s">
+      <c r="C223" s="39"/>
+    </row>
+    <row r="224" spans="3:3" ht="36.75">
+      <c r="C224" s="40" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="225" spans="3:3">
-      <c r="C225" s="53"/>
+      <c r="C225" s="39"/>
     </row>
     <row r="226" spans="3:3">
-      <c r="C226" s="55" t="s">
+      <c r="C226" s="41" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="227" spans="3:3">
-      <c r="C227" s="53"/>
+      <c r="C227" s="39"/>
     </row>
     <row r="228" spans="3:3">
-      <c r="C228" s="54" t="s">
+      <c r="C228" s="40" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="229" spans="3:3">
-      <c r="C229" s="53"/>
+      <c r="C229" s="39"/>
     </row>
     <row r="230" spans="3:3">
-      <c r="C230" s="55" t="s">
+      <c r="C230" s="41" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="231" spans="3:3">
-      <c r="C231" s="53"/>
-    </row>
-    <row r="232" spans="3:3" ht="35.4">
-      <c r="C232" s="54" t="s">
+      <c r="C231" s="39"/>
+    </row>
+    <row r="232" spans="3:3" ht="36.75">
+      <c r="C232" s="40" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="233" spans="3:3">
-      <c r="C233" s="53"/>
+      <c r="C233" s="39"/>
     </row>
     <row r="234" spans="3:3">
-      <c r="C234" s="55" t="s">
+      <c r="C234" s="41" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="235" spans="3:3">
-      <c r="C235" s="53"/>
+      <c r="C235" s="39"/>
     </row>
     <row r="236" spans="3:3">
-      <c r="C236" s="54" t="s">
+      <c r="C236" s="40" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="237" spans="3:3">
-      <c r="C237" s="53"/>
+      <c r="C237" s="39"/>
     </row>
     <row r="238" spans="3:3">
-      <c r="C238" s="55" t="s">
+      <c r="C238" s="41" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="239" spans="3:3">
-      <c r="C239" s="53"/>
+      <c r="C239" s="39"/>
     </row>
     <row r="240" spans="3:3">
-      <c r="C240" s="54" t="s">
+      <c r="C240" s="40" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="241" spans="3:3">
-      <c r="C241" s="53"/>
+      <c r="C241" s="39"/>
     </row>
     <row r="242" spans="3:3">
-      <c r="C242" s="55" t="s">
+      <c r="C242" s="41" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="243" spans="3:3">
-      <c r="C243" s="53"/>
-    </row>
-    <row r="244" spans="3:3" ht="35.4">
-      <c r="C244" s="54" t="s">
+      <c r="C243" s="39"/>
+    </row>
+    <row r="244" spans="3:3" ht="36.75">
+      <c r="C244" s="40" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="245" spans="3:3">
-      <c r="C245" s="53"/>
+      <c r="C245" s="39"/>
     </row>
     <row r="246" spans="3:3">
-      <c r="C246" s="55" t="s">
+      <c r="C246" s="41" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="247" spans="3:3">
-      <c r="C247" s="53"/>
-    </row>
-    <row r="248" spans="3:3" ht="52.8">
-      <c r="C248" s="54" t="s">
+      <c r="C247" s="39"/>
+    </row>
+    <row r="248" spans="3:3" ht="54.75">
+      <c r="C248" s="40" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="249" spans="3:3">
-      <c r="C249" s="53"/>
+      <c r="C249" s="39"/>
     </row>
     <row r="250" spans="3:3">
-      <c r="C250" s="55" t="s">
+      <c r="C250" s="41" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="251" spans="3:3">
-      <c r="C251" s="53"/>
+      <c r="C251" s="39"/>
     </row>
     <row r="252" spans="3:3">
-      <c r="C252" s="54" t="s">
+      <c r="C252" s="40" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="253" spans="3:3">
-      <c r="C253" s="53"/>
+      <c r="C253" s="39"/>
     </row>
     <row r="254" spans="3:3">
-      <c r="C254" s="55" t="s">
+      <c r="C254" s="41" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4295,67 +4438,180 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:N20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="8.85546875" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14">
+      <c r="B3" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="44" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="45" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="45" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="46"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="45" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="47"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="45" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="49"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="43" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="43" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="43" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="44" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:N3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B6:X131"/>
   <sheetViews>
     <sheetView topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C141" sqref="C141:I144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:15" s="3" customFormat="1">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43" t="s">
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="2:15" ht="25.8" customHeight="1">
-      <c r="B7" s="40" t="s">
+    <row r="7" spans="2:15" ht="25.9" customHeight="1">
+      <c r="B7" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40" t="s">
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="44" t="s">
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="46"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="58"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="2:15" ht="25.8" customHeight="1">
-      <c r="B8" s="40" t="s">
+    <row r="8" spans="2:15" ht="25.9" customHeight="1">
+      <c r="B8" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40" t="s">
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="49"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="61"/>
     </row>
     <row r="9" spans="2:15">
       <c r="N9" s="4"/>
@@ -4447,7 +4703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4455,14 +4711,14 @@
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A5:I10"/>
   <sheetViews>
@@ -4470,9 +4726,9 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:9">
@@ -4549,7 +4805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:Y30"/>
   <sheetViews>
@@ -4557,11 +4813,11 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:25">
@@ -4600,7 +4856,7 @@
       <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="50" t="s">
+      <c r="N9" s="62" t="s">
         <v>62</v>
       </c>
       <c r="O9" s="13" t="s">
@@ -4617,7 +4873,7 @@
       <c r="X9" s="14"/>
       <c r="Y9" s="15"/>
     </row>
-    <row r="10" spans="2:25" ht="20.399999999999999">
+    <row r="10" spans="2:25" ht="20.25">
       <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
@@ -4627,7 +4883,7 @@
       <c r="D10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="51"/>
+      <c r="N10" s="63"/>
       <c r="O10" s="16" t="s">
         <v>50</v>
       </c>
@@ -4654,7 +4910,7 @@
       <c r="D11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="51"/>
+      <c r="N11" s="63"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
@@ -4680,7 +4936,7 @@
       <c r="G12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N12" s="51"/>
+      <c r="N12" s="63"/>
       <c r="O12" s="19" t="s">
         <v>51</v>
       </c>
@@ -4697,7 +4953,7 @@
       <c r="X12" s="16"/>
       <c r="Y12" s="18"/>
     </row>
-    <row r="13" spans="2:25" ht="20.399999999999999">
+    <row r="13" spans="2:25" ht="20.25">
       <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
@@ -4707,7 +4963,7 @@
       <c r="D13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N13" s="51"/>
+      <c r="N13" s="63"/>
       <c r="O13" s="16" t="s">
         <v>50</v>
       </c>
@@ -4734,7 +4990,7 @@
       <c r="D14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N14" s="52"/>
+      <c r="N14" s="64"/>
       <c r="O14" s="20" t="s">
         <v>58</v>
       </c>
@@ -4824,17 +5080,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D7:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="22"/>
+    <col min="1" max="16384" width="8.85546875" style="22"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:4">
@@ -4857,7 +5113,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="4:4" ht="409.6">
+    <row r="13" spans="4:4" ht="409.5">
       <c r="D13" s="27" t="s">
         <v>132</v>
       </c>
@@ -4868,15 +5124,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
@@ -4914,7 +5170,7 @@
     <row r="13" spans="2:2">
       <c r="B13" s="26"/>
     </row>
-    <row r="14" spans="2:2" ht="33" thickBot="1">
+    <row r="14" spans="2:2" ht="33.75" thickBot="1">
       <c r="B14" s="31" t="s">
         <v>149</v>
       </c>
@@ -4929,12 +5185,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="15.6">
+    <row r="17" spans="2:2" ht="15.75">
       <c r="B17" s="32" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="15.6">
+    <row r="18" spans="2:2" ht="15.75">
       <c r="B18" s="32" t="s">
         <v>151</v>
       </c>
@@ -4955,7 +5211,7 @@
     <row r="23" spans="2:2">
       <c r="B23" s="26"/>
     </row>
-    <row r="24" spans="2:2" ht="24.6">
+    <row r="24" spans="2:2" ht="26.25">
       <c r="B24" s="29" t="s">
         <v>142</v>
       </c>
@@ -4970,7 +5226,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="24.6">
+    <row r="28" spans="2:2" ht="26.25">
       <c r="B28" s="29" t="s">
         <v>144</v>
       </c>
@@ -4985,7 +5241,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="23.4">
+    <row r="34" spans="2:2" ht="23.25">
       <c r="B34" s="30" t="s">
         <v>147</v>
       </c>
